--- a/outputs/h1b_approvals_and_denials_by_metro_2024.xlsx
+++ b/outputs/h1b_approvals_and_denials_by_metro_2024.xlsx
@@ -65,3175 +65,3175 @@
     <t xml:space="preserve">10140</t>
   </si>
   <si>
-    <t xml:space="preserve">Aberdeen, WA Micro Area</t>
+    <t xml:space="preserve">Aberdeen, WA</t>
   </si>
   <si>
     <t xml:space="preserve">10180</t>
   </si>
   <si>
-    <t xml:space="preserve">Abilene, TX Metro Area</t>
+    <t xml:space="preserve">Abilene, TX</t>
   </si>
   <si>
     <t xml:space="preserve">10300</t>
   </si>
   <si>
-    <t xml:space="preserve">Adrian, MI Micro Area</t>
+    <t xml:space="preserve">Adrian, MI</t>
   </si>
   <si>
     <t xml:space="preserve">10420</t>
   </si>
   <si>
-    <t xml:space="preserve">Akron, OH Metro Area</t>
+    <t xml:space="preserve">Akron, OH</t>
   </si>
   <si>
     <t xml:space="preserve">10460</t>
   </si>
   <si>
-    <t xml:space="preserve">Alamogordo, NM Micro Area</t>
+    <t xml:space="preserve">Alamogordo, NM</t>
   </si>
   <si>
     <t xml:space="preserve">10500</t>
   </si>
   <si>
-    <t xml:space="preserve">Albany, GA Metro Area</t>
+    <t xml:space="preserve">Albany, GA</t>
   </si>
   <si>
     <t xml:space="preserve">10540</t>
   </si>
   <si>
-    <t xml:space="preserve">Albany, OR Metro Area</t>
+    <t xml:space="preserve">Albany, OR</t>
   </si>
   <si>
     <t xml:space="preserve">10580</t>
   </si>
   <si>
-    <t xml:space="preserve">Albany-Schenectady-Troy, NY Metro Area</t>
+    <t xml:space="preserve">Albany-Schenectady-Troy, NY</t>
   </si>
   <si>
     <t xml:space="preserve">10620</t>
   </si>
   <si>
-    <t xml:space="preserve">Albemarle, NC Micro Area</t>
+    <t xml:space="preserve">Albemarle, NC</t>
   </si>
   <si>
     <t xml:space="preserve">10700</t>
   </si>
   <si>
-    <t xml:space="preserve">Albertville, AL Micro Area</t>
+    <t xml:space="preserve">Albertville, AL</t>
   </si>
   <si>
     <t xml:space="preserve">10740</t>
   </si>
   <si>
-    <t xml:space="preserve">Albuquerque, NM Metro Area</t>
+    <t xml:space="preserve">Albuquerque, NM</t>
   </si>
   <si>
     <t xml:space="preserve">10780</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexandria, LA Metro Area</t>
+    <t xml:space="preserve">Alexandria, LA</t>
   </si>
   <si>
     <t xml:space="preserve">10900</t>
   </si>
   <si>
-    <t xml:space="preserve">Allentown-Bethlehem-Easton, PA-NJ Metro Area</t>
+    <t xml:space="preserve">Allentown-Bethlehem-Easton, PA-NJ</t>
   </si>
   <si>
     <t xml:space="preserve">11020</t>
   </si>
   <si>
-    <t xml:space="preserve">Altoona, PA Metro Area</t>
+    <t xml:space="preserve">Altoona, PA</t>
   </si>
   <si>
     <t xml:space="preserve">11100</t>
   </si>
   <si>
-    <t xml:space="preserve">Amarillo, TX Metro Area</t>
+    <t xml:space="preserve">Amarillo, TX</t>
   </si>
   <si>
     <t xml:space="preserve">11180</t>
   </si>
   <si>
-    <t xml:space="preserve">Ames, IA Metro Area</t>
+    <t xml:space="preserve">Ames, IA</t>
   </si>
   <si>
     <t xml:space="preserve">11200</t>
   </si>
   <si>
-    <t xml:space="preserve">Amherst Town-Northampton, MA Metro Area</t>
+    <t xml:space="preserve">Amherst Town-Northampton, MA</t>
   </si>
   <si>
     <t xml:space="preserve">11260</t>
   </si>
   <si>
-    <t xml:space="preserve">Anchorage, AK Metro Area</t>
+    <t xml:space="preserve">Anchorage, AK</t>
   </si>
   <si>
     <t xml:space="preserve">11360</t>
   </si>
   <si>
-    <t xml:space="preserve">Anderson Creek, NC Micro Area</t>
+    <t xml:space="preserve">Anderson Creek, NC</t>
   </si>
   <si>
     <t xml:space="preserve">11460</t>
   </si>
   <si>
-    <t xml:space="preserve">Ann Arbor, MI Metro Area</t>
+    <t xml:space="preserve">Ann Arbor, MI</t>
   </si>
   <si>
     <t xml:space="preserve">11500</t>
   </si>
   <si>
-    <t xml:space="preserve">Anniston-Oxford, AL Metro Area</t>
+    <t xml:space="preserve">Anniston-Oxford, AL</t>
   </si>
   <si>
     <t xml:space="preserve">11540</t>
   </si>
   <si>
-    <t xml:space="preserve">Appleton, WI Metro Area</t>
+    <t xml:space="preserve">Appleton, WI</t>
   </si>
   <si>
     <t xml:space="preserve">11700</t>
   </si>
   <si>
-    <t xml:space="preserve">Asheville, NC Metro Area</t>
+    <t xml:space="preserve">Asheville, NC</t>
   </si>
   <si>
     <t xml:space="preserve">11940</t>
   </si>
   <si>
-    <t xml:space="preserve">Athens, TN Micro Area</t>
+    <t xml:space="preserve">Athens, TN</t>
   </si>
   <si>
     <t xml:space="preserve">11980</t>
   </si>
   <si>
-    <t xml:space="preserve">Athens, TX Micro Area</t>
+    <t xml:space="preserve">Athens, TX</t>
   </si>
   <si>
     <t xml:space="preserve">12020</t>
   </si>
   <si>
-    <t xml:space="preserve">Athens-Clarke County, GA Metro Area</t>
+    <t xml:space="preserve">Athens-Clarke County, GA</t>
   </si>
   <si>
     <t xml:space="preserve">12060</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlanta-Sandy Springs-Roswell, GA Metro Area</t>
+    <t xml:space="preserve">Atlanta-Sandy Springs-Roswell, GA</t>
   </si>
   <si>
     <t xml:space="preserve">12100</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlantic City-Hammonton, NJ Metro Area</t>
+    <t xml:space="preserve">Atlantic City-Hammonton, NJ</t>
   </si>
   <si>
     <t xml:space="preserve">12180</t>
   </si>
   <si>
-    <t xml:space="preserve">Auburn, NY Micro Area</t>
+    <t xml:space="preserve">Auburn, NY</t>
   </si>
   <si>
     <t xml:space="preserve">12220</t>
   </si>
   <si>
-    <t xml:space="preserve">Auburn-Opelika, AL Metro Area</t>
+    <t xml:space="preserve">Auburn-Opelika, AL</t>
   </si>
   <si>
     <t xml:space="preserve">12260</t>
   </si>
   <si>
-    <t xml:space="preserve">Augusta-Richmond County, GA-SC Metro Area</t>
+    <t xml:space="preserve">Augusta-Richmond County, GA-SC</t>
   </si>
   <si>
     <t xml:space="preserve">12300</t>
   </si>
   <si>
-    <t xml:space="preserve">Augusta-Waterville, ME Micro Area</t>
+    <t xml:space="preserve">Augusta-Waterville, ME</t>
   </si>
   <si>
     <t xml:space="preserve">12420</t>
   </si>
   <si>
-    <t xml:space="preserve">Austin-Round Rock-San Marcos, TX Metro Area</t>
+    <t xml:space="preserve">Austin-Round Rock-San Marcos, TX</t>
   </si>
   <si>
     <t xml:space="preserve">12540</t>
   </si>
   <si>
-    <t xml:space="preserve">Bakersfield-Delano, CA Metro Area</t>
+    <t xml:space="preserve">Bakersfield-Delano, CA</t>
   </si>
   <si>
     <t xml:space="preserve">12580</t>
   </si>
   <si>
-    <t xml:space="preserve">Baltimore-Columbia-Towson, MD Metro Area</t>
+    <t xml:space="preserve">Baltimore-Columbia-Towson, MD</t>
   </si>
   <si>
     <t xml:space="preserve">12620</t>
   </si>
   <si>
-    <t xml:space="preserve">Bangor, ME Metro Area</t>
+    <t xml:space="preserve">Bangor, ME</t>
   </si>
   <si>
     <t xml:space="preserve">12660</t>
   </si>
   <si>
-    <t xml:space="preserve">Baraboo, WI Micro Area</t>
+    <t xml:space="preserve">Baraboo, WI</t>
   </si>
   <si>
     <t xml:space="preserve">12700</t>
   </si>
   <si>
-    <t xml:space="preserve">Barnstable Town, MA Metro Area</t>
+    <t xml:space="preserve">Barnstable Town, MA</t>
   </si>
   <si>
     <t xml:space="preserve">12940</t>
   </si>
   <si>
-    <t xml:space="preserve">Baton Rouge, LA Metro Area</t>
+    <t xml:space="preserve">Baton Rouge, LA</t>
   </si>
   <si>
     <t xml:space="preserve">12980</t>
   </si>
   <si>
-    <t xml:space="preserve">Battle Creek, MI Metro Area</t>
+    <t xml:space="preserve">Battle Creek, MI</t>
   </si>
   <si>
     <t xml:space="preserve">13020</t>
   </si>
   <si>
-    <t xml:space="preserve">Bay City, MI Metro Area</t>
+    <t xml:space="preserve">Bay City, MI</t>
   </si>
   <si>
     <t xml:space="preserve">13140</t>
   </si>
   <si>
-    <t xml:space="preserve">Beaumont-Port Arthur, TX Metro Area</t>
+    <t xml:space="preserve">Beaumont-Port Arthur, TX</t>
   </si>
   <si>
     <t xml:space="preserve">13180</t>
   </si>
   <si>
-    <t xml:space="preserve">Beaver Dam, WI Micro Area</t>
+    <t xml:space="preserve">Beaver Dam, WI</t>
   </si>
   <si>
     <t xml:space="preserve">13220</t>
   </si>
   <si>
-    <t xml:space="preserve">Beckley, WV Metro Area</t>
+    <t xml:space="preserve">Beckley, WV</t>
   </si>
   <si>
     <t xml:space="preserve">13380</t>
   </si>
   <si>
-    <t xml:space="preserve">Bellingham, WA Metro Area</t>
+    <t xml:space="preserve">Bellingham, WA</t>
   </si>
   <si>
     <t xml:space="preserve">13460</t>
   </si>
   <si>
-    <t xml:space="preserve">Bend, OR Metro Area</t>
+    <t xml:space="preserve">Bend, OR</t>
   </si>
   <si>
     <t xml:space="preserve">13740</t>
   </si>
   <si>
-    <t xml:space="preserve">Billings, MT Metro Area</t>
+    <t xml:space="preserve">Billings, MT</t>
   </si>
   <si>
     <t xml:space="preserve">13780</t>
   </si>
   <si>
-    <t xml:space="preserve">Binghamton, NY Metro Area</t>
+    <t xml:space="preserve">Binghamton, NY</t>
   </si>
   <si>
     <t xml:space="preserve">13820</t>
   </si>
   <si>
-    <t xml:space="preserve">Birmingham, AL Metro Area</t>
+    <t xml:space="preserve">Birmingham, AL</t>
   </si>
   <si>
     <t xml:space="preserve">13900</t>
   </si>
   <si>
-    <t xml:space="preserve">Bismarck, ND Metro Area</t>
+    <t xml:space="preserve">Bismarck, ND</t>
   </si>
   <si>
     <t xml:space="preserve">13980</t>
   </si>
   <si>
-    <t xml:space="preserve">Blacksburg-Christiansburg-Radford, VA Metro Area</t>
+    <t xml:space="preserve">Blacksburg-Christiansburg-Radford, VA</t>
   </si>
   <si>
     <t xml:space="preserve">14010</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloomington, IL Metro Area</t>
+    <t xml:space="preserve">Bloomington, IL</t>
   </si>
   <si>
     <t xml:space="preserve">14020</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloomington, IN Metro Area</t>
+    <t xml:space="preserve">Bloomington, IN</t>
   </si>
   <si>
     <t xml:space="preserve">14100</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloomsburg-Berwick, PA Micro Area</t>
+    <t xml:space="preserve">Bloomsburg-Berwick, PA</t>
   </si>
   <si>
     <t xml:space="preserve">14140</t>
   </si>
   <si>
-    <t xml:space="preserve">Bluefield, WV-VA Micro Area</t>
+    <t xml:space="preserve">Bluefield, WV-VA</t>
   </si>
   <si>
     <t xml:space="preserve">14260</t>
   </si>
   <si>
-    <t xml:space="preserve">Boise City, ID Metro Area</t>
+    <t xml:space="preserve">Boise City, ID</t>
   </si>
   <si>
     <t xml:space="preserve">14460</t>
   </si>
   <si>
-    <t xml:space="preserve">Boston-Cambridge-Newton, MA-NH Metro Area</t>
+    <t xml:space="preserve">Boston-Cambridge-Newton, MA-NH</t>
   </si>
   <si>
     <t xml:space="preserve">14500</t>
   </si>
   <si>
-    <t xml:space="preserve">Boulder, CO Metro Area</t>
+    <t xml:space="preserve">Boulder, CO</t>
   </si>
   <si>
     <t xml:space="preserve">14540</t>
   </si>
   <si>
-    <t xml:space="preserve">Bowling Green, KY Metro Area</t>
+    <t xml:space="preserve">Bowling Green, KY</t>
   </si>
   <si>
     <t xml:space="preserve">14580</t>
   </si>
   <si>
-    <t xml:space="preserve">Bozeman, MT Metro Area</t>
+    <t xml:space="preserve">Bozeman, MT</t>
   </si>
   <si>
     <t xml:space="preserve">14660</t>
   </si>
   <si>
-    <t xml:space="preserve">Brainerd, MN Micro Area</t>
+    <t xml:space="preserve">Brainerd, MN</t>
   </si>
   <si>
     <t xml:space="preserve">14740</t>
   </si>
   <si>
-    <t xml:space="preserve">Bremerton-Silverdale-Port Orchard, WA Metro Area</t>
+    <t xml:space="preserve">Bremerton-Silverdale-Port Orchard, WA</t>
   </si>
   <si>
     <t xml:space="preserve">14860</t>
   </si>
   <si>
-    <t xml:space="preserve">Bridgeport-Stamford-Danbury, CT Metro Area</t>
+    <t xml:space="preserve">Bridgeport-Stamford-Danbury, CT</t>
   </si>
   <si>
     <t xml:space="preserve">14940</t>
   </si>
   <si>
-    <t xml:space="preserve">Brigham City, UT-ID Micro Area</t>
+    <t xml:space="preserve">Brigham City, UT-ID</t>
   </si>
   <si>
     <t xml:space="preserve">15180</t>
   </si>
   <si>
-    <t xml:space="preserve">Brownsville-Harlingen, TX Metro Area</t>
+    <t xml:space="preserve">Brownsville-Harlingen, TX</t>
   </si>
   <si>
     <t xml:space="preserve">15260</t>
   </si>
   <si>
-    <t xml:space="preserve">Brunswick-St. Simons, GA Metro Area</t>
+    <t xml:space="preserve">Brunswick-St. Simons, GA</t>
   </si>
   <si>
     <t xml:space="preserve">15380</t>
   </si>
   <si>
-    <t xml:space="preserve">Buffalo-Cheektowaga, NY Metro Area</t>
+    <t xml:space="preserve">Buffalo-Cheektowaga, NY</t>
   </si>
   <si>
     <t xml:space="preserve">15500</t>
   </si>
   <si>
-    <t xml:space="preserve">Burlington, NC Metro Area</t>
+    <t xml:space="preserve">Burlington, NC</t>
   </si>
   <si>
     <t xml:space="preserve">15540</t>
   </si>
   <si>
-    <t xml:space="preserve">Burlington-South Burlington, VT Metro Area</t>
+    <t xml:space="preserve">Burlington-South Burlington, VT</t>
   </si>
   <si>
     <t xml:space="preserve">15940</t>
   </si>
   <si>
-    <t xml:space="preserve">Canton-Massillon, OH Metro Area</t>
+    <t xml:space="preserve">Canton-Massillon, OH</t>
   </si>
   <si>
     <t xml:space="preserve">15980</t>
   </si>
   <si>
-    <t xml:space="preserve">Cape Coral-Fort Myers, FL Metro Area</t>
+    <t xml:space="preserve">Cape Coral-Fort Myers, FL</t>
   </si>
   <si>
     <t xml:space="preserve">16020</t>
   </si>
   <si>
-    <t xml:space="preserve">Cape Girardeau, MO-IL Metro Area</t>
+    <t xml:space="preserve">Cape Girardeau, MO-IL</t>
   </si>
   <si>
     <t xml:space="preserve">16180</t>
   </si>
   <si>
-    <t xml:space="preserve">Carson City, NV Metro Area</t>
+    <t xml:space="preserve">Carson City, NV</t>
   </si>
   <si>
     <t xml:space="preserve">16220</t>
   </si>
   <si>
-    <t xml:space="preserve">Casper, WY Metro Area</t>
+    <t xml:space="preserve">Casper, WY</t>
   </si>
   <si>
     <t xml:space="preserve">16260</t>
   </si>
   <si>
-    <t xml:space="preserve">Cedar City, UT Micro Area</t>
+    <t xml:space="preserve">Cedar City, UT</t>
   </si>
   <si>
     <t xml:space="preserve">16300</t>
   </si>
   <si>
-    <t xml:space="preserve">Cedar Rapids, IA Metro Area</t>
+    <t xml:space="preserve">Cedar Rapids, IA</t>
   </si>
   <si>
     <t xml:space="preserve">16500</t>
   </si>
   <si>
-    <t xml:space="preserve">Centralia, WA Micro Area</t>
+    <t xml:space="preserve">Centralia, WA</t>
   </si>
   <si>
     <t xml:space="preserve">16540</t>
   </si>
   <si>
-    <t xml:space="preserve">Chambersburg, PA Metro Area</t>
+    <t xml:space="preserve">Chambersburg, PA</t>
   </si>
   <si>
     <t xml:space="preserve">16580</t>
   </si>
   <si>
-    <t xml:space="preserve">Champaign-Urbana, IL Metro Area</t>
+    <t xml:space="preserve">Champaign-Urbana, IL</t>
   </si>
   <si>
     <t xml:space="preserve">16620</t>
   </si>
   <si>
-    <t xml:space="preserve">Charleston, WV Metro Area</t>
+    <t xml:space="preserve">Charleston, WV</t>
   </si>
   <si>
     <t xml:space="preserve">16700</t>
   </si>
   <si>
-    <t xml:space="preserve">Charleston-North Charleston, SC Metro Area</t>
+    <t xml:space="preserve">Charleston-North Charleston, SC</t>
   </si>
   <si>
     <t xml:space="preserve">16740</t>
   </si>
   <si>
-    <t xml:space="preserve">Charlotte-Concord-Gastonia, NC-SC Metro Area</t>
+    <t xml:space="preserve">Charlotte-Concord-Gastonia, NC-SC</t>
   </si>
   <si>
     <t xml:space="preserve">16820</t>
   </si>
   <si>
-    <t xml:space="preserve">Charlottesville, VA Metro Area</t>
+    <t xml:space="preserve">Charlottesville, VA</t>
   </si>
   <si>
     <t xml:space="preserve">16860</t>
   </si>
   <si>
-    <t xml:space="preserve">Chattanooga, TN-GA Metro Area</t>
+    <t xml:space="preserve">Chattanooga, TN-GA</t>
   </si>
   <si>
     <t xml:space="preserve">16940</t>
   </si>
   <si>
-    <t xml:space="preserve">Cheyenne, WY Metro Area</t>
+    <t xml:space="preserve">Cheyenne, WY</t>
   </si>
   <si>
     <t xml:space="preserve">16980</t>
   </si>
   <si>
-    <t xml:space="preserve">Chicago-Naperville-Elgin, IL-IN Metro Area</t>
+    <t xml:space="preserve">Chicago-Naperville-Elgin, IL-IN</t>
   </si>
   <si>
     <t xml:space="preserve">17020</t>
   </si>
   <si>
-    <t xml:space="preserve">Chico, CA Metro Area</t>
+    <t xml:space="preserve">Chico, CA</t>
   </si>
   <si>
     <t xml:space="preserve">17060</t>
   </si>
   <si>
-    <t xml:space="preserve">Chillicothe, OH Micro Area</t>
+    <t xml:space="preserve">Chillicothe, OH</t>
   </si>
   <si>
     <t xml:space="preserve">17140</t>
   </si>
   <si>
-    <t xml:space="preserve">Cincinnati, OH-KY-IN Metro Area</t>
+    <t xml:space="preserve">Cincinnati, OH-KY-IN</t>
   </si>
   <si>
     <t xml:space="preserve">17220</t>
   </si>
   <si>
-    <t xml:space="preserve">Clarksburg, WV Micro Area</t>
+    <t xml:space="preserve">Clarksburg, WV</t>
   </si>
   <si>
     <t xml:space="preserve">17300</t>
   </si>
   <si>
-    <t xml:space="preserve">Clarksville, TN-KY Metro Area</t>
+    <t xml:space="preserve">Clarksville, TN-KY</t>
   </si>
   <si>
     <t xml:space="preserve">17340</t>
   </si>
   <si>
-    <t xml:space="preserve">Clearlake, CA Micro Area</t>
+    <t xml:space="preserve">Clearlake, CA</t>
   </si>
   <si>
     <t xml:space="preserve">17410</t>
   </si>
   <si>
-    <t xml:space="preserve">Cleveland, OH Metro Area</t>
+    <t xml:space="preserve">Cleveland, OH</t>
   </si>
   <si>
     <t xml:space="preserve">17420</t>
   </si>
   <si>
-    <t xml:space="preserve">Cleveland, TN Metro Area</t>
+    <t xml:space="preserve">Cleveland, TN</t>
   </si>
   <si>
     <t xml:space="preserve">17580</t>
   </si>
   <si>
-    <t xml:space="preserve">Clovis, NM Micro Area</t>
+    <t xml:space="preserve">Clovis, NM</t>
   </si>
   <si>
     <t xml:space="preserve">17660</t>
   </si>
   <si>
-    <t xml:space="preserve">Coeur d'Alene, ID Metro Area</t>
+    <t xml:space="preserve">Coeur d'Alene, ID</t>
   </si>
   <si>
     <t xml:space="preserve">17780</t>
   </si>
   <si>
-    <t xml:space="preserve">College Station-Bryan, TX Metro Area</t>
+    <t xml:space="preserve">College Station-Bryan, TX</t>
   </si>
   <si>
     <t xml:space="preserve">17820</t>
   </si>
   <si>
-    <t xml:space="preserve">Colorado Springs, CO Metro Area</t>
+    <t xml:space="preserve">Colorado Springs, CO</t>
   </si>
   <si>
     <t xml:space="preserve">17860</t>
   </si>
   <si>
-    <t xml:space="preserve">Columbia, MO Metro Area</t>
+    <t xml:space="preserve">Columbia, MO</t>
   </si>
   <si>
     <t xml:space="preserve">17900</t>
   </si>
   <si>
-    <t xml:space="preserve">Columbia, SC Metro Area</t>
+    <t xml:space="preserve">Columbia, SC</t>
   </si>
   <si>
     <t xml:space="preserve">17980</t>
   </si>
   <si>
-    <t xml:space="preserve">Columbus, GA-AL Metro Area</t>
+    <t xml:space="preserve">Columbus, GA-AL</t>
   </si>
   <si>
     <t xml:space="preserve">18020</t>
   </si>
   <si>
-    <t xml:space="preserve">Columbus, IN Metro Area</t>
+    <t xml:space="preserve">Columbus, IN</t>
   </si>
   <si>
     <t xml:space="preserve">18060</t>
   </si>
   <si>
-    <t xml:space="preserve">Columbus, MS Micro Area</t>
+    <t xml:space="preserve">Columbus, MS</t>
   </si>
   <si>
     <t xml:space="preserve">18140</t>
   </si>
   <si>
-    <t xml:space="preserve">Columbus, OH Metro Area</t>
+    <t xml:space="preserve">Columbus, OH</t>
   </si>
   <si>
     <t xml:space="preserve">18180</t>
   </si>
   <si>
-    <t xml:space="preserve">Concord, NH Micro Area</t>
+    <t xml:space="preserve">Concord, NH</t>
   </si>
   <si>
     <t xml:space="preserve">18260</t>
   </si>
   <si>
-    <t xml:space="preserve">Cookeville, TN Micro Area</t>
+    <t xml:space="preserve">Cookeville, TN</t>
   </si>
   <si>
     <t xml:space="preserve">18340</t>
   </si>
   <si>
-    <t xml:space="preserve">Corbin, KY Micro Area</t>
+    <t xml:space="preserve">Corbin, KY</t>
   </si>
   <si>
     <t xml:space="preserve">18500</t>
   </si>
   <si>
-    <t xml:space="preserve">Corning, NY Micro Area</t>
+    <t xml:space="preserve">Corning, NY</t>
   </si>
   <si>
     <t xml:space="preserve">18580</t>
   </si>
   <si>
-    <t xml:space="preserve">Corpus Christi, TX Metro Area</t>
+    <t xml:space="preserve">Corpus Christi, TX</t>
   </si>
   <si>
     <t xml:space="preserve">18700</t>
   </si>
   <si>
-    <t xml:space="preserve">Corvallis, OR Metro Area</t>
+    <t xml:space="preserve">Corvallis, OR</t>
   </si>
   <si>
     <t xml:space="preserve">18880</t>
   </si>
   <si>
-    <t xml:space="preserve">Crestview-Fort Walton Beach-Destin, FL Metro Area</t>
+    <t xml:space="preserve">Crestview-Fort Walton Beach-Destin, FL</t>
   </si>
   <si>
     <t xml:space="preserve">18900</t>
   </si>
   <si>
-    <t xml:space="preserve">Crossville, TN Micro Area</t>
+    <t xml:space="preserve">Crossville, TN</t>
   </si>
   <si>
     <t xml:space="preserve">18980</t>
   </si>
   <si>
-    <t xml:space="preserve">Cullman, AL Micro Area</t>
+    <t xml:space="preserve">Cullman, AL</t>
   </si>
   <si>
     <t xml:space="preserve">19060</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumberland, MD-WV Micro Area</t>
+    <t xml:space="preserve">Cumberland, MD-WV</t>
   </si>
   <si>
     <t xml:space="preserve">19100</t>
   </si>
   <si>
-    <t xml:space="preserve">Dallas-Fort Worth-Arlington, TX Metro Area</t>
+    <t xml:space="preserve">Dallas-Fort Worth-Arlington, TX</t>
   </si>
   <si>
     <t xml:space="preserve">19140</t>
   </si>
   <si>
-    <t xml:space="preserve">Dalton, GA Metro Area</t>
+    <t xml:space="preserve">Dalton, GA</t>
   </si>
   <si>
     <t xml:space="preserve">19180</t>
   </si>
   <si>
-    <t xml:space="preserve">Danville, IL Micro Area</t>
+    <t xml:space="preserve">Danville, IL</t>
   </si>
   <si>
     <t xml:space="preserve">19260</t>
   </si>
   <si>
-    <t xml:space="preserve">Danville, VA Micro Area</t>
+    <t xml:space="preserve">Danville, VA</t>
   </si>
   <si>
     <t xml:space="preserve">19300</t>
   </si>
   <si>
-    <t xml:space="preserve">Daphne-Fairhope-Foley, AL Metro Area</t>
+    <t xml:space="preserve">Daphne-Fairhope-Foley, AL</t>
   </si>
   <si>
     <t xml:space="preserve">19340</t>
   </si>
   <si>
-    <t xml:space="preserve">Davenport-Moline-Rock Island, IA-IL Metro Area</t>
+    <t xml:space="preserve">Davenport-Moline-Rock Island, IA-IL</t>
   </si>
   <si>
     <t xml:space="preserve">19430</t>
   </si>
   <si>
-    <t xml:space="preserve">Dayton-Kettering-Beavercreek, OH Metro Area</t>
+    <t xml:space="preserve">Dayton-Kettering-Beavercreek, OH</t>
   </si>
   <si>
     <t xml:space="preserve">19460</t>
   </si>
   <si>
-    <t xml:space="preserve">Decatur, AL Metro Area</t>
+    <t xml:space="preserve">Decatur, AL</t>
   </si>
   <si>
     <t xml:space="preserve">19500</t>
   </si>
   <si>
-    <t xml:space="preserve">Decatur, IL Metro Area</t>
+    <t xml:space="preserve">Decatur, IL</t>
   </si>
   <si>
     <t xml:space="preserve">19660</t>
   </si>
   <si>
-    <t xml:space="preserve">Deltona-Daytona Beach-Ormond Beach, FL Metro Area</t>
+    <t xml:space="preserve">Deltona-Daytona Beach-Ormond Beach, FL</t>
   </si>
   <si>
     <t xml:space="preserve">19740</t>
   </si>
   <si>
-    <t xml:space="preserve">Denver-Aurora-Centennial, CO Metro Area</t>
+    <t xml:space="preserve">Denver-Aurora-Centennial, CO</t>
   </si>
   <si>
     <t xml:space="preserve">19780</t>
   </si>
   <si>
-    <t xml:space="preserve">Des Moines-West Des Moines, IA Metro Area</t>
+    <t xml:space="preserve">Des Moines-West Des Moines, IA</t>
   </si>
   <si>
     <t xml:space="preserve">19820</t>
   </si>
   <si>
-    <t xml:space="preserve">Detroit-Warren-Dearborn, MI Metro Area</t>
+    <t xml:space="preserve">Detroit-Warren-Dearborn, MI</t>
   </si>
   <si>
     <t xml:space="preserve">20020</t>
   </si>
   <si>
-    <t xml:space="preserve">Dothan, AL Metro Area</t>
+    <t xml:space="preserve">Dothan, AL</t>
   </si>
   <si>
     <t xml:space="preserve">20100</t>
   </si>
   <si>
-    <t xml:space="preserve">Dover, DE Metro Area</t>
+    <t xml:space="preserve">Dover, DE</t>
   </si>
   <si>
     <t xml:space="preserve">20180</t>
   </si>
   <si>
-    <t xml:space="preserve">DuBois, PA Micro Area</t>
+    <t xml:space="preserve">DuBois, PA</t>
   </si>
   <si>
     <t xml:space="preserve">20220</t>
   </si>
   <si>
-    <t xml:space="preserve">Dubuque, IA Metro Area</t>
+    <t xml:space="preserve">Dubuque, IA</t>
   </si>
   <si>
     <t xml:space="preserve">20260</t>
   </si>
   <si>
-    <t xml:space="preserve">Duluth, MN-WI Metro Area</t>
+    <t xml:space="preserve">Duluth, MN-WI</t>
   </si>
   <si>
     <t xml:space="preserve">20500</t>
   </si>
   <si>
-    <t xml:space="preserve">Durham-Chapel Hill, NC Metro Area</t>
+    <t xml:space="preserve">Durham-Chapel Hill, NC</t>
   </si>
   <si>
     <t xml:space="preserve">20580</t>
   </si>
   <si>
-    <t xml:space="preserve">Eagle Pass, TX Metro Area</t>
+    <t xml:space="preserve">Eagle Pass, TX</t>
   </si>
   <si>
     <t xml:space="preserve">20700</t>
   </si>
   <si>
-    <t xml:space="preserve">East Stroudsburg, PA Micro Area</t>
+    <t xml:space="preserve">East Stroudsburg, PA</t>
   </si>
   <si>
     <t xml:space="preserve">20740</t>
   </si>
   <si>
-    <t xml:space="preserve">Eau Claire, WI Metro Area</t>
+    <t xml:space="preserve">Eau Claire, WI</t>
   </si>
   <si>
     <t xml:space="preserve">20940</t>
   </si>
   <si>
-    <t xml:space="preserve">El Centro, CA Metro Area</t>
+    <t xml:space="preserve">El Centro, CA</t>
   </si>
   <si>
     <t xml:space="preserve">21060</t>
   </si>
   <si>
-    <t xml:space="preserve">Elizabethtown, KY Metro Area</t>
+    <t xml:space="preserve">Elizabethtown, KY</t>
   </si>
   <si>
     <t xml:space="preserve">21140</t>
   </si>
   <si>
-    <t xml:space="preserve">Elkhart-Goshen, IN Metro Area</t>
+    <t xml:space="preserve">Elkhart-Goshen, IN</t>
   </si>
   <si>
     <t xml:space="preserve">21300</t>
   </si>
   <si>
-    <t xml:space="preserve">Elmira, NY Metro Area</t>
+    <t xml:space="preserve">Elmira, NY</t>
   </si>
   <si>
     <t xml:space="preserve">21340</t>
   </si>
   <si>
-    <t xml:space="preserve">El Paso, TX Metro Area</t>
+    <t xml:space="preserve">El Paso, TX</t>
   </si>
   <si>
     <t xml:space="preserve">21420</t>
   </si>
   <si>
-    <t xml:space="preserve">Enid, OK Metro Area</t>
+    <t xml:space="preserve">Enid, OK</t>
   </si>
   <si>
     <t xml:space="preserve">21500</t>
   </si>
   <si>
-    <t xml:space="preserve">Erie, PA Metro Area</t>
+    <t xml:space="preserve">Erie, PA</t>
   </si>
   <si>
     <t xml:space="preserve">21660</t>
   </si>
   <si>
-    <t xml:space="preserve">Eugene-Springfield, OR Metro Area</t>
+    <t xml:space="preserve">Eugene-Springfield, OR</t>
   </si>
   <si>
     <t xml:space="preserve">21700</t>
   </si>
   <si>
-    <t xml:space="preserve">Eureka-Arcata, CA Micro Area</t>
+    <t xml:space="preserve">Eureka-Arcata, CA</t>
   </si>
   <si>
     <t xml:space="preserve">21780</t>
   </si>
   <si>
-    <t xml:space="preserve">Evansville, IN Metro Area</t>
+    <t xml:space="preserve">Evansville, IN</t>
   </si>
   <si>
     <t xml:space="preserve">21820</t>
   </si>
   <si>
-    <t xml:space="preserve">Fairbanks-College, AK Metro Area</t>
+    <t xml:space="preserve">Fairbanks-College, AK</t>
   </si>
   <si>
     <t xml:space="preserve">22020</t>
   </si>
   <si>
-    <t xml:space="preserve">Fargo, ND-MN Metro Area</t>
+    <t xml:space="preserve">Fargo, ND-MN</t>
   </si>
   <si>
     <t xml:space="preserve">22060</t>
   </si>
   <si>
-    <t xml:space="preserve">Faribault-Northfield, MN Micro Area</t>
+    <t xml:space="preserve">Faribault-Northfield, MN</t>
   </si>
   <si>
     <t xml:space="preserve">22100</t>
   </si>
   <si>
-    <t xml:space="preserve">Farmington, MO Micro Area</t>
+    <t xml:space="preserve">Farmington, MO</t>
   </si>
   <si>
     <t xml:space="preserve">22140</t>
   </si>
   <si>
-    <t xml:space="preserve">Farmington, NM Metro Area</t>
+    <t xml:space="preserve">Farmington, NM</t>
   </si>
   <si>
     <t xml:space="preserve">22180</t>
   </si>
   <si>
-    <t xml:space="preserve">Fayetteville, NC Metro Area</t>
+    <t xml:space="preserve">Fayetteville, NC</t>
   </si>
   <si>
     <t xml:space="preserve">22220</t>
   </si>
   <si>
-    <t xml:space="preserve">Fayetteville-Springdale-Rogers, AR Metro Area</t>
+    <t xml:space="preserve">Fayetteville-Springdale-Rogers, AR</t>
   </si>
   <si>
     <t xml:space="preserve">22300</t>
   </si>
   <si>
-    <t xml:space="preserve">Findlay, OH Micro Area</t>
+    <t xml:space="preserve">Findlay, OH</t>
   </si>
   <si>
     <t xml:space="preserve">22380</t>
   </si>
   <si>
-    <t xml:space="preserve">Flagstaff, AZ Metro Area</t>
+    <t xml:space="preserve">Flagstaff, AZ</t>
   </si>
   <si>
     <t xml:space="preserve">22420</t>
   </si>
   <si>
-    <t xml:space="preserve">Flint, MI Metro Area</t>
+    <t xml:space="preserve">Flint, MI</t>
   </si>
   <si>
     <t xml:space="preserve">22500</t>
   </si>
   <si>
-    <t xml:space="preserve">Florence, SC Metro Area</t>
+    <t xml:space="preserve">Florence, SC</t>
   </si>
   <si>
     <t xml:space="preserve">22520</t>
   </si>
   <si>
-    <t xml:space="preserve">Florence-Muscle Shoals, AL Metro Area</t>
+    <t xml:space="preserve">Florence-Muscle Shoals, AL</t>
   </si>
   <si>
     <t xml:space="preserve">22540</t>
   </si>
   <si>
-    <t xml:space="preserve">Fond du Lac, WI Metro Area</t>
+    <t xml:space="preserve">Fond du Lac, WI</t>
   </si>
   <si>
     <t xml:space="preserve">22580</t>
   </si>
   <si>
-    <t xml:space="preserve">Forest City, NC Micro Area</t>
+    <t xml:space="preserve">Forest City, NC</t>
   </si>
   <si>
     <t xml:space="preserve">22660</t>
   </si>
   <si>
-    <t xml:space="preserve">Fort Collins-Loveland, CO Metro Area</t>
+    <t xml:space="preserve">Fort Collins-Loveland, CO</t>
   </si>
   <si>
     <t xml:space="preserve">22840</t>
   </si>
   <si>
-    <t xml:space="preserve">Fort Payne, AL Micro Area</t>
+    <t xml:space="preserve">Fort Payne, AL</t>
   </si>
   <si>
     <t xml:space="preserve">22900</t>
   </si>
   <si>
-    <t xml:space="preserve">Fort Smith, AR-OK Metro Area</t>
+    <t xml:space="preserve">Fort Smith, AR-OK</t>
   </si>
   <si>
     <t xml:space="preserve">23060</t>
   </si>
   <si>
-    <t xml:space="preserve">Fort Wayne, IN Metro Area</t>
+    <t xml:space="preserve">Fort Wayne, IN</t>
   </si>
   <si>
     <t xml:space="preserve">23180</t>
   </si>
   <si>
-    <t xml:space="preserve">Frankfort, KY Micro Area</t>
+    <t xml:space="preserve">Frankfort, KY</t>
   </si>
   <si>
     <t xml:space="preserve">23420</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresno, CA Metro Area</t>
+    <t xml:space="preserve">Fresno, CA</t>
   </si>
   <si>
     <t xml:space="preserve">23460</t>
   </si>
   <si>
-    <t xml:space="preserve">Gadsden, AL Metro Area</t>
+    <t xml:space="preserve">Gadsden, AL</t>
   </si>
   <si>
     <t xml:space="preserve">23540</t>
   </si>
   <si>
-    <t xml:space="preserve">Gainesville, FL Metro Area</t>
+    <t xml:space="preserve">Gainesville, FL</t>
   </si>
   <si>
     <t xml:space="preserve">23580</t>
   </si>
   <si>
-    <t xml:space="preserve">Gainesville, GA Metro Area</t>
+    <t xml:space="preserve">Gainesville, GA</t>
   </si>
   <si>
     <t xml:space="preserve">23700</t>
   </si>
   <si>
-    <t xml:space="preserve">Gallup, NM Micro Area</t>
+    <t xml:space="preserve">Gallup, NM</t>
   </si>
   <si>
     <t xml:space="preserve">23900</t>
   </si>
   <si>
-    <t xml:space="preserve">Gettysburg, PA Metro Area</t>
+    <t xml:space="preserve">Gettysburg, PA</t>
   </si>
   <si>
     <t xml:space="preserve">24020</t>
   </si>
   <si>
-    <t xml:space="preserve">Glens Falls, NY Metro Area</t>
+    <t xml:space="preserve">Glens Falls, NY</t>
   </si>
   <si>
     <t xml:space="preserve">24140</t>
   </si>
   <si>
-    <t xml:space="preserve">Goldsboro, NC Metro Area</t>
+    <t xml:space="preserve">Goldsboro, NC</t>
   </si>
   <si>
     <t xml:space="preserve">24180</t>
   </si>
   <si>
-    <t xml:space="preserve">Granbury, TX Micro Area</t>
+    <t xml:space="preserve">Granbury, TX</t>
   </si>
   <si>
     <t xml:space="preserve">24220</t>
   </si>
   <si>
-    <t xml:space="preserve">Grand Forks, ND-MN Metro Area</t>
+    <t xml:space="preserve">Grand Forks, ND-MN</t>
   </si>
   <si>
     <t xml:space="preserve">24260</t>
   </si>
   <si>
-    <t xml:space="preserve">Grand Island, NE Metro Area</t>
+    <t xml:space="preserve">Grand Island, NE</t>
   </si>
   <si>
     <t xml:space="preserve">24300</t>
   </si>
   <si>
-    <t xml:space="preserve">Grand Junction, CO Metro Area</t>
+    <t xml:space="preserve">Grand Junction, CO</t>
   </si>
   <si>
     <t xml:space="preserve">24340</t>
   </si>
   <si>
-    <t xml:space="preserve">Grand Rapids-Wyoming-Kentwood, MI Metro Area</t>
+    <t xml:space="preserve">Grand Rapids-Wyoming-Kentwood, MI</t>
   </si>
   <si>
     <t xml:space="preserve">24420</t>
   </si>
   <si>
-    <t xml:space="preserve">Grants Pass, OR Metro Area</t>
+    <t xml:space="preserve">Grants Pass, OR</t>
   </si>
   <si>
     <t xml:space="preserve">24500</t>
   </si>
   <si>
-    <t xml:space="preserve">Great Falls, MT Metro Area</t>
+    <t xml:space="preserve">Great Falls, MT</t>
   </si>
   <si>
     <t xml:space="preserve">24540</t>
   </si>
   <si>
-    <t xml:space="preserve">Greeley, CO Metro Area</t>
+    <t xml:space="preserve">Greeley, CO</t>
   </si>
   <si>
     <t xml:space="preserve">24580</t>
   </si>
   <si>
-    <t xml:space="preserve">Green Bay, WI Metro Area</t>
+    <t xml:space="preserve">Green Bay, WI</t>
   </si>
   <si>
     <t xml:space="preserve">24620</t>
   </si>
   <si>
-    <t xml:space="preserve">Greeneville, TN Micro Area</t>
+    <t xml:space="preserve">Greeneville, TN</t>
   </si>
   <si>
     <t xml:space="preserve">24640</t>
   </si>
   <si>
-    <t xml:space="preserve">Greenfield, MA Micro Area</t>
+    <t xml:space="preserve">Greenfield, MA</t>
   </si>
   <si>
     <t xml:space="preserve">24660</t>
   </si>
   <si>
-    <t xml:space="preserve">Greensboro-High Point, NC Metro Area</t>
+    <t xml:space="preserve">Greensboro-High Point, NC</t>
   </si>
   <si>
     <t xml:space="preserve">24780</t>
   </si>
   <si>
-    <t xml:space="preserve">Greenville, NC Metro Area</t>
+    <t xml:space="preserve">Greenville, NC</t>
   </si>
   <si>
     <t xml:space="preserve">24860</t>
   </si>
   <si>
-    <t xml:space="preserve">Greenville-Anderson-Greer, SC Metro Area</t>
+    <t xml:space="preserve">Greenville-Anderson-Greer, SC</t>
   </si>
   <si>
     <t xml:space="preserve">24940</t>
   </si>
   <si>
-    <t xml:space="preserve">Greenwood, SC Micro Area</t>
+    <t xml:space="preserve">Greenwood, SC</t>
   </si>
   <si>
     <t xml:space="preserve">25060</t>
   </si>
   <si>
-    <t xml:space="preserve">Gulfport-Biloxi, MS Metro Area</t>
+    <t xml:space="preserve">Gulfport-Biloxi, MS</t>
   </si>
   <si>
     <t xml:space="preserve">25180</t>
   </si>
   <si>
-    <t xml:space="preserve">Hagerstown-Martinsburg, MD-WV Metro Area</t>
+    <t xml:space="preserve">Hagerstown-Martinsburg, MD-WV</t>
   </si>
   <si>
     <t xml:space="preserve">25220</t>
   </si>
   <si>
-    <t xml:space="preserve">Hammond, LA Metro Area</t>
+    <t xml:space="preserve">Hammond, LA</t>
   </si>
   <si>
     <t xml:space="preserve">25260</t>
   </si>
   <si>
-    <t xml:space="preserve">Hanford-Corcoran, CA Metro Area</t>
+    <t xml:space="preserve">Hanford-Corcoran, CA</t>
   </si>
   <si>
     <t xml:space="preserve">25420</t>
   </si>
   <si>
-    <t xml:space="preserve">Harrisburg-Carlisle, PA Metro Area</t>
+    <t xml:space="preserve">Harrisburg-Carlisle, PA</t>
   </si>
   <si>
     <t xml:space="preserve">25500</t>
   </si>
   <si>
-    <t xml:space="preserve">Harrisonburg, VA Metro Area</t>
+    <t xml:space="preserve">Harrisonburg, VA</t>
   </si>
   <si>
     <t xml:space="preserve">25540</t>
   </si>
   <si>
-    <t xml:space="preserve">Hartford-West Hartford-East Hartford, CT Metro Area</t>
+    <t xml:space="preserve">Hartford-West Hartford-East Hartford, CT</t>
   </si>
   <si>
     <t xml:space="preserve">25620</t>
   </si>
   <si>
-    <t xml:space="preserve">Hattiesburg, MS Metro Area</t>
+    <t xml:space="preserve">Hattiesburg, MS</t>
   </si>
   <si>
     <t xml:space="preserve">25720</t>
   </si>
   <si>
-    <t xml:space="preserve">Heber, UT Micro Area</t>
+    <t xml:space="preserve">Heber, UT</t>
   </si>
   <si>
     <t xml:space="preserve">25740</t>
   </si>
   <si>
-    <t xml:space="preserve">Helena, MT Metro Area</t>
+    <t xml:space="preserve">Helena, MT</t>
   </si>
   <si>
     <t xml:space="preserve">25840</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermiston-Pendleton, OR Micro Area</t>
+    <t xml:space="preserve">Hermiston-Pendleton, OR</t>
   </si>
   <si>
     <t xml:space="preserve">25850</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage, PA Micro Area</t>
+    <t xml:space="preserve">Hermitage, PA</t>
   </si>
   <si>
     <t xml:space="preserve">25860</t>
   </si>
   <si>
-    <t xml:space="preserve">Hickory-Lenoir-Morganton, NC Metro Area</t>
+    <t xml:space="preserve">Hickory-Lenoir-Morganton, NC</t>
   </si>
   <si>
     <t xml:space="preserve">25900</t>
   </si>
   <si>
-    <t xml:space="preserve">Hilo-Kailua, HI Micro Area</t>
+    <t xml:space="preserve">Hilo-Kailua, HI</t>
   </si>
   <si>
     <t xml:space="preserve">25940</t>
   </si>
   <si>
-    <t xml:space="preserve">Hilton Head Island-Bluffton-Port Royal, SC Metro Area</t>
+    <t xml:space="preserve">Hilton Head Island-Bluffton-Port Royal, SC</t>
   </si>
   <si>
     <t xml:space="preserve">25980</t>
   </si>
   <si>
-    <t xml:space="preserve">Hinesville, GA Metro Area</t>
+    <t xml:space="preserve">Hinesville, GA</t>
   </si>
   <si>
     <t xml:space="preserve">26020</t>
   </si>
   <si>
-    <t xml:space="preserve">Hobbs, NM Micro Area</t>
+    <t xml:space="preserve">Hobbs, NM</t>
   </si>
   <si>
     <t xml:space="preserve">26090</t>
   </si>
   <si>
-    <t xml:space="preserve">Holland, MI Micro Area</t>
+    <t xml:space="preserve">Holland, MI</t>
   </si>
   <si>
     <t xml:space="preserve">26140</t>
   </si>
   <si>
-    <t xml:space="preserve">Homosassa Springs, FL Metro Area</t>
+    <t xml:space="preserve">Homosassa Springs, FL</t>
   </si>
   <si>
     <t xml:space="preserve">26300</t>
   </si>
   <si>
-    <t xml:space="preserve">Hot Springs, AR Metro Area</t>
+    <t xml:space="preserve">Hot Springs, AR</t>
   </si>
   <si>
     <t xml:space="preserve">26380</t>
   </si>
   <si>
-    <t xml:space="preserve">Houma-Bayou Cane-Thibodaux, LA Metro Area</t>
+    <t xml:space="preserve">Houma-Bayou Cane-Thibodaux, LA</t>
   </si>
   <si>
     <t xml:space="preserve">26420</t>
   </si>
   <si>
-    <t xml:space="preserve">Houston-Pasadena-The Woodlands, TX Metro Area</t>
+    <t xml:space="preserve">Houston-Pasadena-The Woodlands, TX</t>
   </si>
   <si>
     <t xml:space="preserve">26580</t>
   </si>
   <si>
-    <t xml:space="preserve">Huntington-Ashland, WV-KY-OH Metro Area</t>
+    <t xml:space="preserve">Huntington-Ashland, WV-KY-OH</t>
   </si>
   <si>
     <t xml:space="preserve">26620</t>
   </si>
   <si>
-    <t xml:space="preserve">Huntsville, AL Metro Area</t>
+    <t xml:space="preserve">Huntsville, AL</t>
   </si>
   <si>
     <t xml:space="preserve">26660</t>
   </si>
   <si>
-    <t xml:space="preserve">Huntsville, TX Micro Area</t>
+    <t xml:space="preserve">Huntsville, TX</t>
   </si>
   <si>
     <t xml:space="preserve">26820</t>
   </si>
   <si>
-    <t xml:space="preserve">Idaho Falls, ID Metro Area</t>
+    <t xml:space="preserve">Idaho Falls, ID</t>
   </si>
   <si>
     <t xml:space="preserve">26860</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiana, PA Micro Area</t>
+    <t xml:space="preserve">Indiana, PA</t>
   </si>
   <si>
     <t xml:space="preserve">26900</t>
   </si>
   <si>
-    <t xml:space="preserve">Indianapolis-Carmel-Greenwood, IN Metro Area</t>
+    <t xml:space="preserve">Indianapolis-Carmel-Greenwood, IN</t>
   </si>
   <si>
     <t xml:space="preserve">26980</t>
   </si>
   <si>
-    <t xml:space="preserve">Iowa City, IA Metro Area</t>
+    <t xml:space="preserve">Iowa City, IA</t>
   </si>
   <si>
     <t xml:space="preserve">27060</t>
   </si>
   <si>
-    <t xml:space="preserve">Ithaca, NY Metro Area</t>
+    <t xml:space="preserve">Ithaca, NY</t>
   </si>
   <si>
     <t xml:space="preserve">27100</t>
   </si>
   <si>
-    <t xml:space="preserve">Jackson, MI Metro Area</t>
+    <t xml:space="preserve">Jackson, MI</t>
   </si>
   <si>
     <t xml:space="preserve">27140</t>
   </si>
   <si>
-    <t xml:space="preserve">Jackson, MS Metro Area</t>
+    <t xml:space="preserve">Jackson, MS</t>
   </si>
   <si>
     <t xml:space="preserve">27180</t>
   </si>
   <si>
-    <t xml:space="preserve">Jackson, TN Metro Area</t>
+    <t xml:space="preserve">Jackson, TN</t>
   </si>
   <si>
     <t xml:space="preserve">27260</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacksonville, FL Metro Area</t>
+    <t xml:space="preserve">Jacksonville, FL</t>
   </si>
   <si>
     <t xml:space="preserve">27340</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacksonville, NC Metro Area</t>
+    <t xml:space="preserve">Jacksonville, NC</t>
   </si>
   <si>
     <t xml:space="preserve">27460</t>
   </si>
   <si>
-    <t xml:space="preserve">Jamestown-Dunkirk, NY Micro Area</t>
+    <t xml:space="preserve">Jamestown-Dunkirk, NY</t>
   </si>
   <si>
     <t xml:space="preserve">27500</t>
   </si>
   <si>
-    <t xml:space="preserve">Janesville-Beloit, WI Metro Area</t>
+    <t xml:space="preserve">Janesville-Beloit, WI</t>
   </si>
   <si>
     <t xml:space="preserve">27600</t>
   </si>
   <si>
-    <t xml:space="preserve">Jefferson, GA Micro Area</t>
+    <t xml:space="preserve">Jefferson, GA</t>
   </si>
   <si>
     <t xml:space="preserve">27620</t>
   </si>
   <si>
-    <t xml:space="preserve">Jefferson City, MO Metro Area</t>
+    <t xml:space="preserve">Jefferson City, MO</t>
   </si>
   <si>
     <t xml:space="preserve">27740</t>
   </si>
   <si>
-    <t xml:space="preserve">Johnson City, TN Metro Area</t>
+    <t xml:space="preserve">Johnson City, TN</t>
   </si>
   <si>
     <t xml:space="preserve">27780</t>
   </si>
   <si>
-    <t xml:space="preserve">Johnstown, PA Metro Area</t>
+    <t xml:space="preserve">Johnstown, PA</t>
   </si>
   <si>
     <t xml:space="preserve">27860</t>
   </si>
   <si>
-    <t xml:space="preserve">Jonesboro, AR Metro Area</t>
+    <t xml:space="preserve">Jonesboro, AR</t>
   </si>
   <si>
     <t xml:space="preserve">27900</t>
   </si>
   <si>
-    <t xml:space="preserve">Joplin, MO-KS Metro Area</t>
+    <t xml:space="preserve">Joplin, MO-KS</t>
   </si>
   <si>
     <t xml:space="preserve">27980</t>
   </si>
   <si>
-    <t xml:space="preserve">Kahului-Wailuku, HI Metro Area</t>
+    <t xml:space="preserve">Kahului-Wailuku, HI</t>
   </si>
   <si>
     <t xml:space="preserve">28020</t>
   </si>
   <si>
-    <t xml:space="preserve">Kalamazoo-Portage, MI Metro Area</t>
+    <t xml:space="preserve">Kalamazoo-Portage, MI</t>
   </si>
   <si>
     <t xml:space="preserve">28060</t>
   </si>
   <si>
-    <t xml:space="preserve">Kalispell, MT Micro Area</t>
+    <t xml:space="preserve">Kalispell, MT</t>
   </si>
   <si>
     <t xml:space="preserve">28100</t>
   </si>
   <si>
-    <t xml:space="preserve">Kankakee, IL Metro Area</t>
+    <t xml:space="preserve">Kankakee, IL</t>
   </si>
   <si>
     <t xml:space="preserve">28140</t>
   </si>
   <si>
-    <t xml:space="preserve">Kansas City, MO-KS Metro Area</t>
+    <t xml:space="preserve">Kansas City, MO-KS</t>
   </si>
   <si>
     <t xml:space="preserve">28180</t>
   </si>
   <si>
-    <t xml:space="preserve">Kapaa, HI Micro Area</t>
+    <t xml:space="preserve">Kapaa, HI</t>
   </si>
   <si>
     <t xml:space="preserve">28300</t>
   </si>
   <si>
-    <t xml:space="preserve">Keene, NH Micro Area</t>
+    <t xml:space="preserve">Keene, NH</t>
   </si>
   <si>
     <t xml:space="preserve">28420</t>
   </si>
   <si>
-    <t xml:space="preserve">Kennewick-Richland, WA Metro Area</t>
+    <t xml:space="preserve">Kennewick-Richland, WA</t>
   </si>
   <si>
     <t xml:space="preserve">28450</t>
   </si>
   <si>
-    <t xml:space="preserve">Kenosha, WI Metro Area</t>
+    <t xml:space="preserve">Kenosha, WI</t>
   </si>
   <si>
     <t xml:space="preserve">28580</t>
   </si>
   <si>
-    <t xml:space="preserve">Key West-Key Largo, FL Micro Area</t>
+    <t xml:space="preserve">Key West-Key Largo, FL</t>
   </si>
   <si>
     <t xml:space="preserve">28660</t>
   </si>
   <si>
-    <t xml:space="preserve">Killeen-Temple, TX Metro Area</t>
+    <t xml:space="preserve">Killeen-Temple, TX</t>
   </si>
   <si>
     <t xml:space="preserve">28700</t>
   </si>
   <si>
-    <t xml:space="preserve">Kingsport-Bristol, TN-VA Metro Area</t>
+    <t xml:space="preserve">Kingsport-Bristol, TN-VA</t>
   </si>
   <si>
     <t xml:space="preserve">28740</t>
   </si>
   <si>
-    <t xml:space="preserve">Kingston, NY Metro Area</t>
+    <t xml:space="preserve">Kingston, NY</t>
   </si>
   <si>
     <t xml:space="preserve">28880</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiryas Joel-Poughkeepsie-Newburgh, NY Metro Area</t>
+    <t xml:space="preserve">Kiryas Joel-Poughkeepsie-Newburgh, NY</t>
   </si>
   <si>
     <t xml:space="preserve">28900</t>
   </si>
   <si>
-    <t xml:space="preserve">Klamath Falls, OR Micro Area</t>
+    <t xml:space="preserve">Klamath Falls, OR</t>
   </si>
   <si>
     <t xml:space="preserve">28940</t>
   </si>
   <si>
-    <t xml:space="preserve">Knoxville, TN Metro Area</t>
+    <t xml:space="preserve">Knoxville, TN</t>
   </si>
   <si>
     <t xml:space="preserve">29020</t>
   </si>
   <si>
-    <t xml:space="preserve">Kokomo, IN Metro Area</t>
+    <t xml:space="preserve">Kokomo, IN</t>
   </si>
   <si>
     <t xml:space="preserve">29060</t>
   </si>
   <si>
-    <t xml:space="preserve">Laconia, NH Micro Area</t>
+    <t xml:space="preserve">Laconia, NH</t>
   </si>
   <si>
     <t xml:space="preserve">29100</t>
   </si>
   <si>
-    <t xml:space="preserve">La Crosse-Onalaska, WI-MN Metro Area</t>
+    <t xml:space="preserve">La Crosse-Onalaska, WI-MN</t>
   </si>
   <si>
     <t xml:space="preserve">29180</t>
   </si>
   <si>
-    <t xml:space="preserve">Lafayette, LA Metro Area</t>
+    <t xml:space="preserve">Lafayette, LA</t>
   </si>
   <si>
     <t xml:space="preserve">29200</t>
   </si>
   <si>
-    <t xml:space="preserve">Lafayette-West Lafayette, IN Metro Area</t>
+    <t xml:space="preserve">Lafayette-West Lafayette, IN</t>
   </si>
   <si>
     <t xml:space="preserve">29300</t>
   </si>
   <si>
-    <t xml:space="preserve">LaGrange, GA-AL Micro Area</t>
+    <t xml:space="preserve">LaGrange, GA-AL</t>
   </si>
   <si>
     <t xml:space="preserve">29340</t>
   </si>
   <si>
-    <t xml:space="preserve">Lake Charles, LA Metro Area</t>
+    <t xml:space="preserve">Lake Charles, LA</t>
   </si>
   <si>
     <t xml:space="preserve">29380</t>
   </si>
   <si>
-    <t xml:space="preserve">Lake City, FL Micro Area</t>
+    <t xml:space="preserve">Lake City, FL</t>
   </si>
   <si>
     <t xml:space="preserve">29420</t>
   </si>
   <si>
-    <t xml:space="preserve">Lake Havasu City-Kingman, AZ Metro Area</t>
+    <t xml:space="preserve">Lake Havasu City-Kingman, AZ</t>
   </si>
   <si>
     <t xml:space="preserve">29460</t>
   </si>
   <si>
-    <t xml:space="preserve">Lakeland-Winter Haven, FL Metro Area</t>
+    <t xml:space="preserve">Lakeland-Winter Haven, FL</t>
   </si>
   <si>
     <t xml:space="preserve">29540</t>
   </si>
   <si>
-    <t xml:space="preserve">Lancaster, PA Metro Area</t>
+    <t xml:space="preserve">Lancaster, PA</t>
   </si>
   <si>
     <t xml:space="preserve">29620</t>
   </si>
   <si>
-    <t xml:space="preserve">Lansing-East Lansing, MI Metro Area</t>
+    <t xml:space="preserve">Lansing-East Lansing, MI</t>
   </si>
   <si>
     <t xml:space="preserve">29700</t>
   </si>
   <si>
-    <t xml:space="preserve">Laredo, TX Metro Area</t>
+    <t xml:space="preserve">Laredo, TX</t>
   </si>
   <si>
     <t xml:space="preserve">29740</t>
   </si>
   <si>
-    <t xml:space="preserve">Las Cruces, NM Metro Area</t>
+    <t xml:space="preserve">Las Cruces, NM</t>
   </si>
   <si>
     <t xml:space="preserve">29820</t>
   </si>
   <si>
-    <t xml:space="preserve">Las Vegas-Henderson-North Las Vegas, NV Metro Area</t>
+    <t xml:space="preserve">Las Vegas-Henderson-North Las Vegas, NV</t>
   </si>
   <si>
     <t xml:space="preserve">29860</t>
   </si>
   <si>
-    <t xml:space="preserve">Laurel, MS Micro Area</t>
+    <t xml:space="preserve">Laurel, MS</t>
   </si>
   <si>
     <t xml:space="preserve">29940</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawrence, KS Metro Area</t>
+    <t xml:space="preserve">Lawrence, KS</t>
   </si>
   <si>
     <t xml:space="preserve">30020</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawton, OK Metro Area</t>
+    <t xml:space="preserve">Lawton, OK</t>
   </si>
   <si>
     <t xml:space="preserve">30140</t>
   </si>
   <si>
-    <t xml:space="preserve">Lebanon, PA Metro Area</t>
+    <t xml:space="preserve">Lebanon, PA</t>
   </si>
   <si>
     <t xml:space="preserve">30150</t>
   </si>
   <si>
-    <t xml:space="preserve">Lebanon-Claremont, NH-VT Micro Area</t>
+    <t xml:space="preserve">Lebanon-Claremont, NH-VT</t>
   </si>
   <si>
     <t xml:space="preserve">30300</t>
   </si>
   <si>
-    <t xml:space="preserve">Lewiston, ID-WA Metro Area</t>
+    <t xml:space="preserve">Lewiston, ID-WA</t>
   </si>
   <si>
     <t xml:space="preserve">30340</t>
   </si>
   <si>
-    <t xml:space="preserve">Lewiston-Auburn, ME Metro Area</t>
+    <t xml:space="preserve">Lewiston-Auburn, ME</t>
   </si>
   <si>
     <t xml:space="preserve">30460</t>
   </si>
   <si>
-    <t xml:space="preserve">Lexington-Fayette, KY Metro Area</t>
+    <t xml:space="preserve">Lexington-Fayette, KY</t>
   </si>
   <si>
     <t xml:space="preserve">30500</t>
   </si>
   <si>
-    <t xml:space="preserve">Lexington Park, MD Metro Area</t>
+    <t xml:space="preserve">Lexington Park, MD</t>
   </si>
   <si>
     <t xml:space="preserve">30620</t>
   </si>
   <si>
-    <t xml:space="preserve">Lima, OH Metro Area</t>
+    <t xml:space="preserve">Lima, OH</t>
   </si>
   <si>
     <t xml:space="preserve">30700</t>
   </si>
   <si>
-    <t xml:space="preserve">Lincoln, NE Metro Area</t>
+    <t xml:space="preserve">Lincoln, NE</t>
   </si>
   <si>
     <t xml:space="preserve">30780</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Rock-North Little Rock-Conway, AR Metro Area</t>
+    <t xml:space="preserve">Little Rock-North Little Rock-Conway, AR</t>
   </si>
   <si>
     <t xml:space="preserve">30860</t>
   </si>
   <si>
-    <t xml:space="preserve">Logan, UT-ID Metro Area</t>
+    <t xml:space="preserve">Logan, UT-ID</t>
   </si>
   <si>
     <t xml:space="preserve">30980</t>
   </si>
   <si>
-    <t xml:space="preserve">Longview, TX Metro Area</t>
+    <t xml:space="preserve">Longview, TX</t>
   </si>
   <si>
     <t xml:space="preserve">31020</t>
   </si>
   <si>
-    <t xml:space="preserve">Longview-Kelso, WA Metro Area</t>
+    <t xml:space="preserve">Longview-Kelso, WA</t>
   </si>
   <si>
     <t xml:space="preserve">31080</t>
   </si>
   <si>
-    <t xml:space="preserve">Los Angeles-Long Beach-Anaheim, CA Metro Area</t>
+    <t xml:space="preserve">Los Angeles-Long Beach-Anaheim, CA</t>
   </si>
   <si>
     <t xml:space="preserve">31140</t>
   </si>
   <si>
-    <t xml:space="preserve">Louisville/Jefferson County, KY-IN Metro Area</t>
+    <t xml:space="preserve">Louisville/Jefferson County, KY-IN</t>
   </si>
   <si>
     <t xml:space="preserve">31180</t>
   </si>
   <si>
-    <t xml:space="preserve">Lubbock, TX Metro Area</t>
+    <t xml:space="preserve">Lubbock, TX</t>
   </si>
   <si>
     <t xml:space="preserve">31260</t>
   </si>
   <si>
-    <t xml:space="preserve">Lufkin, TX Micro Area</t>
+    <t xml:space="preserve">Lufkin, TX</t>
   </si>
   <si>
     <t xml:space="preserve">31300</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumberton, NC Micro Area</t>
+    <t xml:space="preserve">Lumberton, NC</t>
   </si>
   <si>
     <t xml:space="preserve">31340</t>
   </si>
   <si>
-    <t xml:space="preserve">Lynchburg, VA Metro Area</t>
+    <t xml:space="preserve">Lynchburg, VA</t>
   </si>
   <si>
     <t xml:space="preserve">31420</t>
   </si>
   <si>
-    <t xml:space="preserve">Macon-Bibb County, GA Metro Area</t>
+    <t xml:space="preserve">Macon-Bibb County, GA</t>
   </si>
   <si>
     <t xml:space="preserve">31540</t>
   </si>
   <si>
-    <t xml:space="preserve">Madison, WI Metro Area</t>
+    <t xml:space="preserve">Madison, WI</t>
   </si>
   <si>
     <t xml:space="preserve">31700</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchester-Nashua, NH Metro Area</t>
+    <t xml:space="preserve">Manchester-Nashua, NH</t>
   </si>
   <si>
     <t xml:space="preserve">31740</t>
   </si>
   <si>
-    <t xml:space="preserve">Manhattan, KS Metro Area</t>
+    <t xml:space="preserve">Manhattan, KS</t>
   </si>
   <si>
     <t xml:space="preserve">31820</t>
   </si>
   <si>
-    <t xml:space="preserve">Manitowoc, WI Micro Area</t>
+    <t xml:space="preserve">Manitowoc, WI</t>
   </si>
   <si>
     <t xml:space="preserve">31860</t>
   </si>
   <si>
-    <t xml:space="preserve">Mankato, MN Metro Area</t>
+    <t xml:space="preserve">Mankato, MN</t>
   </si>
   <si>
     <t xml:space="preserve">31900</t>
   </si>
   <si>
-    <t xml:space="preserve">Mansfield, OH Metro Area</t>
+    <t xml:space="preserve">Mansfield, OH</t>
   </si>
   <si>
     <t xml:space="preserve">31940</t>
   </si>
   <si>
-    <t xml:space="preserve">Marinette, WI-MI Micro Area</t>
+    <t xml:space="preserve">Marinette, WI-MI</t>
   </si>
   <si>
     <t xml:space="preserve">31980</t>
   </si>
   <si>
-    <t xml:space="preserve">Marion, IN Micro Area</t>
+    <t xml:space="preserve">Marion, IN</t>
   </si>
   <si>
     <t xml:space="preserve">32060</t>
   </si>
   <si>
-    <t xml:space="preserve">Marion-Herrin, IL Micro Area</t>
+    <t xml:space="preserve">Marion-Herrin, IL</t>
   </si>
   <si>
     <t xml:space="preserve">32100</t>
   </si>
   <si>
-    <t xml:space="preserve">Marquette, MI Micro Area</t>
+    <t xml:space="preserve">Marquette, MI</t>
   </si>
   <si>
     <t xml:space="preserve">32390</t>
   </si>
   <si>
-    <t xml:space="preserve">Massena-Ogdensburg, NY Micro Area</t>
+    <t xml:space="preserve">Massena-Ogdensburg, NY</t>
   </si>
   <si>
     <t xml:space="preserve">32580</t>
   </si>
   <si>
-    <t xml:space="preserve">McAllen-Edinburg-Mission, TX Metro Area</t>
+    <t xml:space="preserve">McAllen-Edinburg-Mission, TX</t>
   </si>
   <si>
     <t xml:space="preserve">32740</t>
   </si>
   <si>
-    <t xml:space="preserve">Meadville, PA Micro Area</t>
+    <t xml:space="preserve">Meadville, PA</t>
   </si>
   <si>
     <t xml:space="preserve">32780</t>
   </si>
   <si>
-    <t xml:space="preserve">Medford, OR Metro Area</t>
+    <t xml:space="preserve">Medford, OR</t>
   </si>
   <si>
     <t xml:space="preserve">32820</t>
   </si>
   <si>
-    <t xml:space="preserve">Memphis, TN-MS-AR Metro Area</t>
+    <t xml:space="preserve">Memphis, TN-MS-AR</t>
   </si>
   <si>
     <t xml:space="preserve">32900</t>
   </si>
   <si>
-    <t xml:space="preserve">Merced, CA Metro Area</t>
+    <t xml:space="preserve">Merced, CA</t>
   </si>
   <si>
     <t xml:space="preserve">32940</t>
   </si>
   <si>
-    <t xml:space="preserve">Meridian, MS Micro Area</t>
+    <t xml:space="preserve">Meridian, MS</t>
   </si>
   <si>
     <t xml:space="preserve">33100</t>
   </si>
   <si>
-    <t xml:space="preserve">Miami-Fort Lauderdale-West Palm Beach, FL Metro Area</t>
+    <t xml:space="preserve">Miami-Fort Lauderdale-West Palm Beach, FL</t>
   </si>
   <si>
     <t xml:space="preserve">33140</t>
   </si>
   <si>
-    <t xml:space="preserve">Michigan City-La Porte, IN Metro Area</t>
+    <t xml:space="preserve">Michigan City-La Porte, IN</t>
   </si>
   <si>
     <t xml:space="preserve">33220</t>
   </si>
   <si>
-    <t xml:space="preserve">Midland, MI Metro Area</t>
+    <t xml:space="preserve">Midland, MI</t>
   </si>
   <si>
     <t xml:space="preserve">33260</t>
   </si>
   <si>
-    <t xml:space="preserve">Midland, TX Metro Area</t>
+    <t xml:space="preserve">Midland, TX</t>
   </si>
   <si>
     <t xml:space="preserve">33340</t>
   </si>
   <si>
-    <t xml:space="preserve">Milwaukee-Waukesha, WI Metro Area</t>
+    <t xml:space="preserve">Milwaukee-Waukesha, WI</t>
   </si>
   <si>
     <t xml:space="preserve">33460</t>
   </si>
   <si>
-    <t xml:space="preserve">Minneapolis-St. Paul-Bloomington, MN-WI Metro Area</t>
+    <t xml:space="preserve">Minneapolis-St. Paul-Bloomington, MN-WI</t>
   </si>
   <si>
     <t xml:space="preserve">33500</t>
   </si>
   <si>
-    <t xml:space="preserve">Minot, ND Metro Area</t>
+    <t xml:space="preserve">Minot, ND</t>
   </si>
   <si>
     <t xml:space="preserve">33540</t>
   </si>
   <si>
-    <t xml:space="preserve">Missoula, MT Metro Area</t>
+    <t xml:space="preserve">Missoula, MT</t>
   </si>
   <si>
     <t xml:space="preserve">33660</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile, AL Metro Area</t>
+    <t xml:space="preserve">Mobile, AL</t>
   </si>
   <si>
     <t xml:space="preserve">33700</t>
   </si>
   <si>
-    <t xml:space="preserve">Modesto, CA Metro Area</t>
+    <t xml:space="preserve">Modesto, CA</t>
   </si>
   <si>
     <t xml:space="preserve">33740</t>
   </si>
   <si>
-    <t xml:space="preserve">Monroe, LA Metro Area</t>
+    <t xml:space="preserve">Monroe, LA</t>
   </si>
   <si>
     <t xml:space="preserve">33780</t>
   </si>
   <si>
-    <t xml:space="preserve">Monroe, MI Metro Area</t>
+    <t xml:space="preserve">Monroe, MI</t>
   </si>
   <si>
     <t xml:space="preserve">33860</t>
   </si>
   <si>
-    <t xml:space="preserve">Montgomery, AL Metro Area</t>
+    <t xml:space="preserve">Montgomery, AL</t>
   </si>
   <si>
     <t xml:space="preserve">33910</t>
   </si>
   <si>
-    <t xml:space="preserve">Monticello, NY Micro Area</t>
+    <t xml:space="preserve">Monticello, NY</t>
   </si>
   <si>
     <t xml:space="preserve">33980</t>
   </si>
   <si>
-    <t xml:space="preserve">Morehead City, NC Micro Area</t>
+    <t xml:space="preserve">Morehead City, NC</t>
   </si>
   <si>
     <t xml:space="preserve">34060</t>
   </si>
   <si>
-    <t xml:space="preserve">Morgantown, WV Metro Area</t>
+    <t xml:space="preserve">Morgantown, WV</t>
   </si>
   <si>
     <t xml:space="preserve">34100</t>
   </si>
   <si>
-    <t xml:space="preserve">Morristown, TN Metro Area</t>
+    <t xml:space="preserve">Morristown, TN</t>
   </si>
   <si>
     <t xml:space="preserve">34180</t>
   </si>
   <si>
-    <t xml:space="preserve">Moses Lake, WA Micro Area</t>
+    <t xml:space="preserve">Moses Lake, WA</t>
   </si>
   <si>
     <t xml:space="preserve">34340</t>
   </si>
   <si>
-    <t xml:space="preserve">Mount Airy, NC Micro Area</t>
+    <t xml:space="preserve">Mount Airy, NC</t>
   </si>
   <si>
     <t xml:space="preserve">34380</t>
   </si>
   <si>
-    <t xml:space="preserve">Mount Pleasant, MI Micro Area</t>
+    <t xml:space="preserve">Mount Pleasant, MI</t>
   </si>
   <si>
     <t xml:space="preserve">34580</t>
   </si>
   <si>
-    <t xml:space="preserve">Mount Vernon-Anacortes, WA Metro Area</t>
+    <t xml:space="preserve">Mount Vernon-Anacortes, WA</t>
   </si>
   <si>
     <t xml:space="preserve">34620</t>
   </si>
   <si>
-    <t xml:space="preserve">Muncie, IN Metro Area</t>
+    <t xml:space="preserve">Muncie, IN</t>
   </si>
   <si>
     <t xml:space="preserve">34680</t>
   </si>
   <si>
-    <t xml:space="preserve">Murrells Inlet, SC Micro Area</t>
+    <t xml:space="preserve">Murrells Inlet, SC</t>
   </si>
   <si>
     <t xml:space="preserve">34740</t>
   </si>
   <si>
-    <t xml:space="preserve">Muskegon-Norton Shores, MI Metro Area</t>
+    <t xml:space="preserve">Muskegon-Norton Shores, MI</t>
   </si>
   <si>
     <t xml:space="preserve">34780</t>
   </si>
   <si>
-    <t xml:space="preserve">Muskogee, OK Micro Area</t>
+    <t xml:space="preserve">Muskogee, OK</t>
   </si>
   <si>
     <t xml:space="preserve">34820</t>
   </si>
   <si>
-    <t xml:space="preserve">Myrtle Beach-Conway-North Myrtle Beach, SC Metro Area</t>
+    <t xml:space="preserve">Myrtle Beach-Conway-North Myrtle Beach, SC</t>
   </si>
   <si>
     <t xml:space="preserve">34860</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacogdoches, TX Micro Area</t>
+    <t xml:space="preserve">Nacogdoches, TX</t>
   </si>
   <si>
     <t xml:space="preserve">34900</t>
   </si>
   <si>
-    <t xml:space="preserve">Napa, CA Metro Area</t>
+    <t xml:space="preserve">Napa, CA</t>
   </si>
   <si>
     <t xml:space="preserve">34940</t>
   </si>
   <si>
-    <t xml:space="preserve">Naples-Marco Island, FL Metro Area</t>
+    <t xml:space="preserve">Naples-Marco Island, FL</t>
   </si>
   <si>
     <t xml:space="preserve">34980</t>
   </si>
   <si>
-    <t xml:space="preserve">Nashville-Davidson--Murfreesboro--Franklin, TN Metro Area</t>
+    <t xml:space="preserve">Nashville-Davidson--Murfreesboro--Franklin, TN</t>
   </si>
   <si>
     <t xml:space="preserve">35100</t>
   </si>
   <si>
-    <t xml:space="preserve">New Bern, NC Micro Area</t>
+    <t xml:space="preserve">New Bern, NC</t>
   </si>
   <si>
     <t xml:space="preserve">35300</t>
   </si>
   <si>
-    <t xml:space="preserve">New Haven, CT Metro Area</t>
+    <t xml:space="preserve">New Haven, CT</t>
   </si>
   <si>
     <t xml:space="preserve">35340</t>
   </si>
   <si>
-    <t xml:space="preserve">New Iberia, LA Micro Area</t>
+    <t xml:space="preserve">New Iberia, LA</t>
   </si>
   <si>
     <t xml:space="preserve">35380</t>
   </si>
   <si>
-    <t xml:space="preserve">New Orleans-Metairie, LA Metro Area</t>
+    <t xml:space="preserve">New Orleans-Metairie, LA</t>
   </si>
   <si>
     <t xml:space="preserve">35420</t>
   </si>
   <si>
-    <t xml:space="preserve">New Philadelphia-Dover, OH Micro Area</t>
+    <t xml:space="preserve">New Philadelphia-Dover, OH</t>
   </si>
   <si>
     <t xml:space="preserve">35620</t>
   </si>
   <si>
-    <t xml:space="preserve">New York-Newark-Jersey City, NY-NJ Metro Area</t>
+    <t xml:space="preserve">New York-Newark-Jersey City, NY-NJ</t>
   </si>
   <si>
     <t xml:space="preserve">35660</t>
   </si>
   <si>
-    <t xml:space="preserve">Niles, MI Metro Area</t>
+    <t xml:space="preserve">Niles, MI</t>
   </si>
   <si>
     <t xml:space="preserve">35840</t>
   </si>
   <si>
-    <t xml:space="preserve">North Port-Bradenton-Sarasota, FL Metro Area</t>
+    <t xml:space="preserve">North Port-Bradenton-Sarasota, FL</t>
   </si>
   <si>
     <t xml:space="preserve">35900</t>
   </si>
   <si>
-    <t xml:space="preserve">North Wilkesboro, NC Micro Area</t>
+    <t xml:space="preserve">North Wilkesboro, NC</t>
   </si>
   <si>
     <t xml:space="preserve">35980</t>
   </si>
   <si>
-    <t xml:space="preserve">Norwich-New London-Willimantic, CT Metro Area</t>
+    <t xml:space="preserve">Norwich-New London-Willimantic, CT</t>
   </si>
   <si>
     <t xml:space="preserve">36020</t>
   </si>
   <si>
-    <t xml:space="preserve">Oak Harbor, WA Micro Area</t>
+    <t xml:space="preserve">Oak Harbor, WA</t>
   </si>
   <si>
     <t xml:space="preserve">36100</t>
   </si>
   <si>
-    <t xml:space="preserve">Ocala, FL Metro Area</t>
+    <t xml:space="preserve">Ocala, FL</t>
   </si>
   <si>
     <t xml:space="preserve">36220</t>
   </si>
   <si>
-    <t xml:space="preserve">Odessa, TX Metro Area</t>
+    <t xml:space="preserve">Odessa, TX</t>
   </si>
   <si>
     <t xml:space="preserve">36260</t>
   </si>
   <si>
-    <t xml:space="preserve">Ogden, UT Metro Area</t>
+    <t xml:space="preserve">Ogden, UT</t>
   </si>
   <si>
     <t xml:space="preserve">36420</t>
   </si>
   <si>
-    <t xml:space="preserve">Oklahoma City, OK Metro Area</t>
+    <t xml:space="preserve">Oklahoma City, OK</t>
   </si>
   <si>
     <t xml:space="preserve">36460</t>
   </si>
   <si>
-    <t xml:space="preserve">Olean, NY Micro Area</t>
+    <t xml:space="preserve">Olean, NY</t>
   </si>
   <si>
     <t xml:space="preserve">36500</t>
   </si>
   <si>
-    <t xml:space="preserve">Olympia-Lacey-Tumwater, WA Metro Area</t>
+    <t xml:space="preserve">Olympia-Lacey-Tumwater, WA</t>
   </si>
   <si>
     <t xml:space="preserve">36540</t>
   </si>
   <si>
-    <t xml:space="preserve">Omaha, NE-IA Metro Area</t>
+    <t xml:space="preserve">Omaha, NE-IA</t>
   </si>
   <si>
     <t xml:space="preserve">36660</t>
   </si>
   <si>
-    <t xml:space="preserve">Opelousas, LA Micro Area</t>
+    <t xml:space="preserve">Opelousas, LA</t>
   </si>
   <si>
     <t xml:space="preserve">36700</t>
   </si>
   <si>
-    <t xml:space="preserve">Orangeburg, SC Micro Area</t>
+    <t xml:space="preserve">Orangeburg, SC</t>
   </si>
   <si>
     <t xml:space="preserve">36740</t>
   </si>
   <si>
-    <t xml:space="preserve">Orlando-Kissimmee-Sanford, FL Metro Area</t>
+    <t xml:space="preserve">Orlando-Kissimmee-Sanford, FL</t>
   </si>
   <si>
     <t xml:space="preserve">36780</t>
   </si>
   <si>
-    <t xml:space="preserve">Oshkosh-Neenah, WI Metro Area</t>
+    <t xml:space="preserve">Oshkosh-Neenah, WI</t>
   </si>
   <si>
     <t xml:space="preserve">36837</t>
   </si>
   <si>
-    <t xml:space="preserve">Ottawa, IL Micro Area</t>
+    <t xml:space="preserve">Ottawa, IL</t>
   </si>
   <si>
     <t xml:space="preserve">36980</t>
   </si>
   <si>
-    <t xml:space="preserve">Owensboro, KY Metro Area</t>
+    <t xml:space="preserve">Owensboro, KY</t>
   </si>
   <si>
     <t xml:space="preserve">37020</t>
   </si>
   <si>
-    <t xml:space="preserve">Owosso, MI Micro Area</t>
+    <t xml:space="preserve">Owosso, MI</t>
   </si>
   <si>
     <t xml:space="preserve">37060</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxford, MS Micro Area</t>
+    <t xml:space="preserve">Oxford, MS</t>
   </si>
   <si>
     <t xml:space="preserve">37100</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxnard-Thousand Oaks-Ventura, CA Metro Area</t>
+    <t xml:space="preserve">Oxnard-Thousand Oaks-Ventura, CA</t>
   </si>
   <si>
     <t xml:space="preserve">37140</t>
   </si>
   <si>
-    <t xml:space="preserve">Paducah, KY-IL Metro Area</t>
+    <t xml:space="preserve">Paducah, KY-IL</t>
   </si>
   <si>
     <t xml:space="preserve">37260</t>
   </si>
   <si>
-    <t xml:space="preserve">Palatka, FL Micro Area</t>
+    <t xml:space="preserve">Palatka, FL</t>
   </si>
   <si>
     <t xml:space="preserve">37340</t>
   </si>
   <si>
-    <t xml:space="preserve">Palm Bay-Melbourne-Titusville, FL Metro Area</t>
+    <t xml:space="preserve">Palm Bay-Melbourne-Titusville, FL</t>
   </si>
   <si>
     <t xml:space="preserve">37460</t>
   </si>
   <si>
-    <t xml:space="preserve">Panama City-Panama City Beach, FL Metro Area</t>
+    <t xml:space="preserve">Panama City-Panama City Beach, FL</t>
   </si>
   <si>
     <t xml:space="preserve">37620</t>
   </si>
   <si>
-    <t xml:space="preserve">Parkersburg-Vienna, WV Metro Area</t>
+    <t xml:space="preserve">Parkersburg-Vienna, WV</t>
   </si>
   <si>
     <t xml:space="preserve">37860</t>
   </si>
   <si>
-    <t xml:space="preserve">Pensacola-Ferry Pass-Brent, FL Metro Area</t>
+    <t xml:space="preserve">Pensacola-Ferry Pass-Brent, FL</t>
   </si>
   <si>
     <t xml:space="preserve">37900</t>
   </si>
   <si>
-    <t xml:space="preserve">Peoria, IL Metro Area</t>
+    <t xml:space="preserve">Peoria, IL</t>
   </si>
   <si>
     <t xml:space="preserve">37980</t>
   </si>
   <si>
-    <t xml:space="preserve">Philadelphia-Camden-Wilmington, PA-NJ-DE-MD Metro Area</t>
+    <t xml:space="preserve">Philadelphia-Camden-Wilmington, PA-NJ-DE-MD</t>
   </si>
   <si>
     <t xml:space="preserve">38060</t>
   </si>
   <si>
-    <t xml:space="preserve">Phoenix-Mesa-Chandler, AZ Metro Area</t>
+    <t xml:space="preserve">Phoenix-Mesa-Chandler, AZ</t>
   </si>
   <si>
     <t xml:space="preserve">38210</t>
   </si>
   <si>
-    <t xml:space="preserve">Pikeville, KY Micro Area</t>
+    <t xml:space="preserve">Pikeville, KY</t>
   </si>
   <si>
     <t xml:space="preserve">38220</t>
   </si>
   <si>
-    <t xml:space="preserve">Pine Bluff, AR Micro Area</t>
+    <t xml:space="preserve">Pine Bluff, AR</t>
   </si>
   <si>
     <t xml:space="preserve">38240</t>
   </si>
   <si>
-    <t xml:space="preserve">Pinehurst-Southern Pines, NC Metro Area</t>
+    <t xml:space="preserve">Pinehurst-Southern Pines, NC</t>
   </si>
   <si>
     <t xml:space="preserve">38300</t>
   </si>
   <si>
-    <t xml:space="preserve">Pittsburgh, PA Metro Area</t>
+    <t xml:space="preserve">Pittsburgh, PA</t>
   </si>
   <si>
     <t xml:space="preserve">38340</t>
   </si>
   <si>
-    <t xml:space="preserve">Pittsfield, MA Metro Area</t>
+    <t xml:space="preserve">Pittsfield, MA</t>
   </si>
   <si>
     <t xml:space="preserve">38460</t>
   </si>
   <si>
-    <t xml:space="preserve">Plattsburgh, NY Micro Area</t>
+    <t xml:space="preserve">Plattsburgh, NY</t>
   </si>
   <si>
     <t xml:space="preserve">38540</t>
   </si>
   <si>
-    <t xml:space="preserve">Pocatello, ID Metro Area</t>
+    <t xml:space="preserve">Pocatello, ID</t>
   </si>
   <si>
     <t xml:space="preserve">38820</t>
   </si>
   <si>
-    <t xml:space="preserve">Port Angeles, WA Micro Area</t>
+    <t xml:space="preserve">Port Angeles, WA</t>
   </si>
   <si>
     <t xml:space="preserve">38860</t>
   </si>
   <si>
-    <t xml:space="preserve">Portland-South Portland, ME Metro Area</t>
+    <t xml:space="preserve">Portland-South Portland, ME</t>
   </si>
   <si>
     <t xml:space="preserve">38900</t>
   </si>
   <si>
-    <t xml:space="preserve">Portland-Vancouver-Hillsboro, OR-WA Metro Area</t>
+    <t xml:space="preserve">Portland-Vancouver-Hillsboro, OR-WA</t>
   </si>
   <si>
     <t xml:space="preserve">38940</t>
   </si>
   <si>
-    <t xml:space="preserve">Port St. Lucie, FL Metro Area</t>
+    <t xml:space="preserve">Port St. Lucie, FL</t>
   </si>
   <si>
     <t xml:space="preserve">39020</t>
   </si>
   <si>
-    <t xml:space="preserve">Portsmouth, OH Micro Area</t>
+    <t xml:space="preserve">Portsmouth, OH</t>
   </si>
   <si>
     <t xml:space="preserve">39060</t>
   </si>
   <si>
-    <t xml:space="preserve">Pottsville, PA Micro Area</t>
+    <t xml:space="preserve">Pottsville, PA</t>
   </si>
   <si>
     <t xml:space="preserve">39150</t>
   </si>
   <si>
-    <t xml:space="preserve">Prescott Valley-Prescott, AZ Metro Area</t>
+    <t xml:space="preserve">Prescott Valley-Prescott, AZ</t>
   </si>
   <si>
     <t xml:space="preserve">39300</t>
   </si>
   <si>
-    <t xml:space="preserve">Providence-Warwick, RI-MA Metro Area</t>
+    <t xml:space="preserve">Providence-Warwick, RI-MA</t>
   </si>
   <si>
     <t xml:space="preserve">39340</t>
   </si>
   <si>
-    <t xml:space="preserve">Provo-Orem-Lehi, UT Metro Area</t>
+    <t xml:space="preserve">Provo-Orem-Lehi, UT</t>
   </si>
   <si>
     <t xml:space="preserve">39380</t>
   </si>
   <si>
-    <t xml:space="preserve">Pueblo, CO Metro Area</t>
+    <t xml:space="preserve">Pueblo, CO</t>
   </si>
   <si>
     <t xml:space="preserve">39460</t>
   </si>
   <si>
-    <t xml:space="preserve">Punta Gorda, FL Metro Area</t>
+    <t xml:space="preserve">Punta Gorda, FL</t>
   </si>
   <si>
     <t xml:space="preserve">39480</t>
   </si>
   <si>
-    <t xml:space="preserve">Putnam, CT Micro Area</t>
+    <t xml:space="preserve">Putnam, CT</t>
   </si>
   <si>
     <t xml:space="preserve">39500</t>
   </si>
   <si>
-    <t xml:space="preserve">Quincy, IL-MO Micro Area</t>
+    <t xml:space="preserve">Quincy, IL-MO</t>
   </si>
   <si>
     <t xml:space="preserve">39540</t>
   </si>
   <si>
-    <t xml:space="preserve">Racine-Mount Pleasant, WI Metro Area</t>
+    <t xml:space="preserve">Racine-Mount Pleasant, WI</t>
   </si>
   <si>
     <t xml:space="preserve">39580</t>
   </si>
   <si>
-    <t xml:space="preserve">Raleigh-Cary, NC Metro Area</t>
+    <t xml:space="preserve">Raleigh-Cary, NC</t>
   </si>
   <si>
     <t xml:space="preserve">39660</t>
   </si>
   <si>
-    <t xml:space="preserve">Rapid City, SD Metro Area</t>
+    <t xml:space="preserve">Rapid City, SD</t>
   </si>
   <si>
     <t xml:space="preserve">39740</t>
   </si>
   <si>
-    <t xml:space="preserve">Reading, PA Metro Area</t>
+    <t xml:space="preserve">Reading, PA</t>
   </si>
   <si>
     <t xml:space="preserve">39820</t>
   </si>
   <si>
-    <t xml:space="preserve">Redding, CA Metro Area</t>
+    <t xml:space="preserve">Redding, CA</t>
   </si>
   <si>
     <t xml:space="preserve">39900</t>
   </si>
   <si>
-    <t xml:space="preserve">Reno, NV Metro Area</t>
+    <t xml:space="preserve">Reno, NV</t>
   </si>
   <si>
     <t xml:space="preserve">39940</t>
   </si>
   <si>
-    <t xml:space="preserve">Rexburg, ID Micro Area</t>
+    <t xml:space="preserve">Rexburg, ID</t>
   </si>
   <si>
     <t xml:space="preserve">39980</t>
   </si>
   <si>
-    <t xml:space="preserve">Richmond, IN Micro Area</t>
+    <t xml:space="preserve">Richmond, IN</t>
   </si>
   <si>
     <t xml:space="preserve">40060</t>
   </si>
   <si>
-    <t xml:space="preserve">Richmond, VA Metro Area</t>
+    <t xml:space="preserve">Richmond, VA</t>
   </si>
   <si>
     <t xml:space="preserve">40080</t>
   </si>
   <si>
-    <t xml:space="preserve">Richmond-Berea, KY Micro Area</t>
+    <t xml:space="preserve">Richmond-Berea, KY</t>
   </si>
   <si>
     <t xml:space="preserve">40090</t>
   </si>
   <si>
-    <t xml:space="preserve">Rifle, CO Micro Area</t>
+    <t xml:space="preserve">Rifle, CO</t>
   </si>
   <si>
     <t xml:space="preserve">40100</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio Grande City-Roma, TX Micro Area</t>
+    <t xml:space="preserve">Rio Grande City-Roma, TX</t>
   </si>
   <si>
     <t xml:space="preserve">40140</t>
   </si>
   <si>
-    <t xml:space="preserve">Riverside-San Bernardino-Ontario, CA Metro Area</t>
+    <t xml:space="preserve">Riverside-San Bernardino-Ontario, CA</t>
   </si>
   <si>
     <t xml:space="preserve">40220</t>
   </si>
   <si>
-    <t xml:space="preserve">Roanoke, VA Metro Area</t>
+    <t xml:space="preserve">Roanoke, VA</t>
   </si>
   <si>
     <t xml:space="preserve">40260</t>
   </si>
   <si>
-    <t xml:space="preserve">Roanoke Rapids, NC Micro Area</t>
+    <t xml:space="preserve">Roanoke Rapids, NC</t>
   </si>
   <si>
     <t xml:space="preserve">40340</t>
   </si>
   <si>
-    <t xml:space="preserve">Rochester, MN Metro Area</t>
+    <t xml:space="preserve">Rochester, MN</t>
   </si>
   <si>
     <t xml:space="preserve">40380</t>
   </si>
   <si>
-    <t xml:space="preserve">Rochester, NY Metro Area</t>
+    <t xml:space="preserve">Rochester, NY</t>
   </si>
   <si>
     <t xml:space="preserve">40420</t>
   </si>
   <si>
-    <t xml:space="preserve">Rockford, IL Metro Area</t>
+    <t xml:space="preserve">Rockford, IL</t>
   </si>
   <si>
     <t xml:space="preserve">40580</t>
   </si>
   <si>
-    <t xml:space="preserve">Rocky Mount, NC Metro Area</t>
+    <t xml:space="preserve">Rocky Mount, NC</t>
   </si>
   <si>
     <t xml:space="preserve">40660</t>
   </si>
   <si>
-    <t xml:space="preserve">Rome, GA Metro Area</t>
+    <t xml:space="preserve">Rome, GA</t>
   </si>
   <si>
     <t xml:space="preserve">40700</t>
   </si>
   <si>
-    <t xml:space="preserve">Roseburg, OR Micro Area</t>
+    <t xml:space="preserve">Roseburg, OR</t>
   </si>
   <si>
     <t xml:space="preserve">40780</t>
   </si>
   <si>
-    <t xml:space="preserve">Russellville, AR Micro Area</t>
+    <t xml:space="preserve">Russellville, AR</t>
   </si>
   <si>
     <t xml:space="preserve">40900</t>
   </si>
   <si>
-    <t xml:space="preserve">Sacramento-Roseville-Folsom, CA Metro Area</t>
+    <t xml:space="preserve">Sacramento-Roseville-Folsom, CA</t>
   </si>
   <si>
     <t xml:space="preserve">40980</t>
   </si>
   <si>
-    <t xml:space="preserve">Saginaw, MI Metro Area</t>
+    <t xml:space="preserve">Saginaw, MI</t>
   </si>
   <si>
     <t xml:space="preserve">41060</t>
   </si>
   <si>
-    <t xml:space="preserve">St. Cloud, MN Metro Area</t>
+    <t xml:space="preserve">St. Cloud, MN</t>
   </si>
   <si>
     <t xml:space="preserve">41100</t>
   </si>
   <si>
-    <t xml:space="preserve">St. George, UT Metro Area</t>
+    <t xml:space="preserve">St. George, UT</t>
   </si>
   <si>
     <t xml:space="preserve">41140</t>
   </si>
   <si>
-    <t xml:space="preserve">St. Joseph, MO-KS Metro Area</t>
+    <t xml:space="preserve">St. Joseph, MO-KS</t>
   </si>
   <si>
     <t xml:space="preserve">41180</t>
   </si>
   <si>
-    <t xml:space="preserve">St. Louis, MO-IL Metro Area</t>
+    <t xml:space="preserve">St. Louis, MO-IL</t>
   </si>
   <si>
     <t xml:space="preserve">41400</t>
   </si>
   <si>
-    <t xml:space="preserve">Salem, OH Micro Area</t>
+    <t xml:space="preserve">Salem, OH</t>
   </si>
   <si>
     <t xml:space="preserve">41420</t>
   </si>
   <si>
-    <t xml:space="preserve">Salem, OR Metro Area</t>
+    <t xml:space="preserve">Salem, OR</t>
   </si>
   <si>
     <t xml:space="preserve">41500</t>
   </si>
   <si>
-    <t xml:space="preserve">Salinas, CA Metro Area</t>
+    <t xml:space="preserve">Salinas, CA</t>
   </si>
   <si>
     <t xml:space="preserve">41540</t>
   </si>
   <si>
-    <t xml:space="preserve">Salisbury, MD Metro Area</t>
+    <t xml:space="preserve">Salisbury, MD</t>
   </si>
   <si>
     <t xml:space="preserve">41620</t>
   </si>
   <si>
-    <t xml:space="preserve">Salt Lake City-Murray, UT Metro Area</t>
+    <t xml:space="preserve">Salt Lake City-Murray, UT</t>
   </si>
   <si>
     <t xml:space="preserve">41660</t>
   </si>
   <si>
-    <t xml:space="preserve">San Angelo, TX Metro Area</t>
+    <t xml:space="preserve">San Angelo, TX</t>
   </si>
   <si>
     <t xml:space="preserve">41700</t>
   </si>
   <si>
-    <t xml:space="preserve">San Antonio-New Braunfels, TX Metro Area</t>
+    <t xml:space="preserve">San Antonio-New Braunfels, TX</t>
   </si>
   <si>
     <t xml:space="preserve">41740</t>
   </si>
   <si>
-    <t xml:space="preserve">San Diego-Chula Vista-Carlsbad, CA Metro Area</t>
+    <t xml:space="preserve">San Diego-Chula Vista-Carlsbad, CA</t>
   </si>
   <si>
     <t xml:space="preserve">41780</t>
   </si>
   <si>
-    <t xml:space="preserve">Sandusky, OH Metro Area</t>
+    <t xml:space="preserve">Sandusky, OH</t>
   </si>
   <si>
     <t xml:space="preserve">41820</t>
   </si>
   <si>
-    <t xml:space="preserve">Sanford, NC Micro Area</t>
+    <t xml:space="preserve">Sanford, NC</t>
   </si>
   <si>
     <t xml:space="preserve">41860</t>
   </si>
   <si>
-    <t xml:space="preserve">San Francisco-Oakland-Fremont, CA Metro Area</t>
+    <t xml:space="preserve">San Francisco-Oakland-Fremont, CA</t>
   </si>
   <si>
     <t xml:space="preserve">41940</t>
   </si>
   <si>
-    <t xml:space="preserve">San Jose-Sunnyvale-Santa Clara, CA Metro Area</t>
+    <t xml:space="preserve">San Jose-Sunnyvale-Santa Clara, CA</t>
   </si>
   <si>
     <t xml:space="preserve">42020</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Obispo-Paso Robles, CA Metro Area</t>
+    <t xml:space="preserve">San Luis Obispo-Paso Robles, CA</t>
   </si>
   <si>
     <t xml:space="preserve">42100</t>
   </si>
   <si>
-    <t xml:space="preserve">Santa Cruz-Watsonville, CA Metro Area</t>
+    <t xml:space="preserve">Santa Cruz-Watsonville, CA</t>
   </si>
   <si>
     <t xml:space="preserve">42140</t>
   </si>
   <si>
-    <t xml:space="preserve">Santa Fe, NM Metro Area</t>
+    <t xml:space="preserve">Santa Fe, NM</t>
   </si>
   <si>
     <t xml:space="preserve">42200</t>
   </si>
   <si>
-    <t xml:space="preserve">Santa Maria-Santa Barbara, CA Metro Area</t>
+    <t xml:space="preserve">Santa Maria-Santa Barbara, CA</t>
   </si>
   <si>
     <t xml:space="preserve">42220</t>
   </si>
   <si>
-    <t xml:space="preserve">Santa Rosa-Petaluma, CA Metro Area</t>
+    <t xml:space="preserve">Santa Rosa-Petaluma, CA</t>
   </si>
   <si>
     <t xml:space="preserve">42340</t>
   </si>
   <si>
-    <t xml:space="preserve">Savannah, GA Metro Area</t>
+    <t xml:space="preserve">Savannah, GA</t>
   </si>
   <si>
     <t xml:space="preserve">42540</t>
   </si>
   <si>
-    <t xml:space="preserve">Scranton--Wilkes-Barre, PA Metro Area</t>
+    <t xml:space="preserve">Scranton--Wilkes-Barre, PA</t>
   </si>
   <si>
     <t xml:space="preserve">42580</t>
   </si>
   <si>
-    <t xml:space="preserve">Seaford, DE Micro Area</t>
+    <t xml:space="preserve">Seaford, DE</t>
   </si>
   <si>
     <t xml:space="preserve">42620</t>
   </si>
   <si>
-    <t xml:space="preserve">Searcy, AR Micro Area</t>
+    <t xml:space="preserve">Searcy, AR</t>
   </si>
   <si>
     <t xml:space="preserve">42660</t>
   </si>
   <si>
-    <t xml:space="preserve">Seattle-Tacoma-Bellevue, WA Metro Area</t>
+    <t xml:space="preserve">Seattle-Tacoma-Bellevue, WA</t>
   </si>
   <si>
     <t xml:space="preserve">42680</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebastian-Vero Beach-West Vero Corridor, FL Metro Area</t>
+    <t xml:space="preserve">Sebastian-Vero Beach-West Vero Corridor, FL</t>
   </si>
   <si>
     <t xml:space="preserve">42700</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebring, FL Metro Area</t>
+    <t xml:space="preserve">Sebring, FL</t>
   </si>
   <si>
     <t xml:space="preserve">42860</t>
   </si>
   <si>
-    <t xml:space="preserve">Seneca, SC Micro Area</t>
+    <t xml:space="preserve">Seneca, SC</t>
   </si>
   <si>
     <t xml:space="preserve">42940</t>
   </si>
   <si>
-    <t xml:space="preserve">Sevierville, TN Micro Area</t>
+    <t xml:space="preserve">Sevierville, TN</t>
   </si>
   <si>
     <t xml:space="preserve">43060</t>
   </si>
   <si>
-    <t xml:space="preserve">Shawnee, OK Micro Area</t>
+    <t xml:space="preserve">Shawnee, OK</t>
   </si>
   <si>
     <t xml:space="preserve">43100</t>
   </si>
   <si>
-    <t xml:space="preserve">Sheboygan, WI Metro Area</t>
+    <t xml:space="preserve">Sheboygan, WI</t>
   </si>
   <si>
     <t xml:space="preserve">43140</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelby-Kings Mountain, NC Micro Area</t>
+    <t xml:space="preserve">Shelby-Kings Mountain, NC</t>
   </si>
   <si>
     <t xml:space="preserve">43220</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelton, WA Micro Area</t>
+    <t xml:space="preserve">Shelton, WA</t>
   </si>
   <si>
     <t xml:space="preserve">43300</t>
   </si>
   <si>
-    <t xml:space="preserve">Sherman-Denison, TX Metro Area</t>
+    <t xml:space="preserve">Sherman-Denison, TX</t>
   </si>
   <si>
     <t xml:space="preserve">43320</t>
   </si>
   <si>
-    <t xml:space="preserve">Show Low, AZ Micro Area</t>
+    <t xml:space="preserve">Show Low, AZ</t>
   </si>
   <si>
     <t xml:space="preserve">43340</t>
   </si>
   <si>
-    <t xml:space="preserve">Shreveport-Bossier City, LA Metro Area</t>
+    <t xml:space="preserve">Shreveport-Bossier City, LA</t>
   </si>
   <si>
     <t xml:space="preserve">43420</t>
   </si>
   <si>
-    <t xml:space="preserve">Sierra Vista-Douglas, AZ Metro Area</t>
+    <t xml:space="preserve">Sierra Vista-Douglas, AZ</t>
   </si>
   <si>
     <t xml:space="preserve">43580</t>
   </si>
   <si>
-    <t xml:space="preserve">Sioux City, IA-NE-SD Metro Area</t>
+    <t xml:space="preserve">Sioux City, IA-NE-SD</t>
   </si>
   <si>
     <t xml:space="preserve">43620</t>
   </si>
   <si>
-    <t xml:space="preserve">Sioux Falls, SD-MN Metro Area</t>
+    <t xml:space="preserve">Sioux Falls, SD-MN</t>
   </si>
   <si>
     <t xml:space="preserve">43640</t>
   </si>
   <si>
-    <t xml:space="preserve">Slidell-Mandeville-Covington, LA Metro Area</t>
+    <t xml:space="preserve">Slidell-Mandeville-Covington, LA</t>
   </si>
   <si>
     <t xml:space="preserve">43700</t>
   </si>
   <si>
-    <t xml:space="preserve">Somerset, KY Micro Area</t>
+    <t xml:space="preserve">Somerset, KY</t>
   </si>
   <si>
     <t xml:space="preserve">43740</t>
   </si>
   <si>
-    <t xml:space="preserve">Somerset, PA Micro Area</t>
+    <t xml:space="preserve">Somerset, PA</t>
   </si>
   <si>
     <t xml:space="preserve">43780</t>
   </si>
   <si>
-    <t xml:space="preserve">South Bend-Mishawaka, IN-MI Metro Area</t>
+    <t xml:space="preserve">South Bend-Mishawaka, IN-MI</t>
   </si>
   <si>
     <t xml:space="preserve">43900</t>
   </si>
   <si>
-    <t xml:space="preserve">Spartanburg, SC Metro Area</t>
+    <t xml:space="preserve">Spartanburg, SC</t>
   </si>
   <si>
     <t xml:space="preserve">44060</t>
   </si>
   <si>
-    <t xml:space="preserve">Spokane-Spokane Valley, WA Metro Area</t>
+    <t xml:space="preserve">Spokane-Spokane Valley, WA</t>
   </si>
   <si>
     <t xml:space="preserve">44100</t>
   </si>
   <si>
-    <t xml:space="preserve">Springfield, IL Metro Area</t>
+    <t xml:space="preserve">Springfield, IL</t>
   </si>
   <si>
     <t xml:space="preserve">44140</t>
   </si>
   <si>
-    <t xml:space="preserve">Springfield, MA Metro Area</t>
+    <t xml:space="preserve">Springfield, MA</t>
   </si>
   <si>
     <t xml:space="preserve">44180</t>
   </si>
   <si>
-    <t xml:space="preserve">Springfield, MO Metro Area</t>
+    <t xml:space="preserve">Springfield, MO</t>
   </si>
   <si>
     <t xml:space="preserve">44220</t>
   </si>
   <si>
-    <t xml:space="preserve">Springfield, OH Metro Area</t>
+    <t xml:space="preserve">Springfield, OH</t>
   </si>
   <si>
     <t xml:space="preserve">44300</t>
   </si>
   <si>
-    <t xml:space="preserve">State College, PA Metro Area</t>
+    <t xml:space="preserve">State College, PA</t>
   </si>
   <si>
     <t xml:space="preserve">44340</t>
   </si>
   <si>
-    <t xml:space="preserve">Statesboro, GA Micro Area</t>
+    <t xml:space="preserve">Statesboro, GA</t>
   </si>
   <si>
     <t xml:space="preserve">44420</t>
   </si>
   <si>
-    <t xml:space="preserve">Staunton-Stuarts Draft, VA Metro Area</t>
+    <t xml:space="preserve">Staunton-Stuarts Draft, VA</t>
   </si>
   <si>
     <t xml:space="preserve">44620</t>
   </si>
   <si>
-    <t xml:space="preserve">Stevens Point-Plover, WI Micro Area</t>
+    <t xml:space="preserve">Stevens Point-Plover, WI</t>
   </si>
   <si>
     <t xml:space="preserve">44660</t>
   </si>
   <si>
-    <t xml:space="preserve">Stillwater, OK Micro Area</t>
+    <t xml:space="preserve">Stillwater, OK</t>
   </si>
   <si>
     <t xml:space="preserve">44700</t>
   </si>
   <si>
-    <t xml:space="preserve">Stockton-Lodi, CA Metro Area</t>
+    <t xml:space="preserve">Stockton-Lodi, CA</t>
   </si>
   <si>
     <t xml:space="preserve">44940</t>
   </si>
   <si>
-    <t xml:space="preserve">Sumter, SC Metro Area</t>
+    <t xml:space="preserve">Sumter, SC</t>
   </si>
   <si>
     <t xml:space="preserve">44980</t>
   </si>
   <si>
-    <t xml:space="preserve">Sunbury, PA Micro Area</t>
+    <t xml:space="preserve">Sunbury, PA</t>
   </si>
   <si>
     <t xml:space="preserve">45060</t>
   </si>
   <si>
-    <t xml:space="preserve">Syracuse, NY Metro Area</t>
+    <t xml:space="preserve">Syracuse, NY</t>
   </si>
   <si>
     <t xml:space="preserve">45180</t>
   </si>
   <si>
-    <t xml:space="preserve">Talladega-Sylacauga, AL Micro Area</t>
+    <t xml:space="preserve">Talladega-Sylacauga, AL</t>
   </si>
   <si>
     <t xml:space="preserve">45220</t>
   </si>
   <si>
-    <t xml:space="preserve">Tallahassee, FL Metro Area</t>
+    <t xml:space="preserve">Tallahassee, FL</t>
   </si>
   <si>
     <t xml:space="preserve">45300</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampa-St. Petersburg-Clearwater, FL Metro Area</t>
+    <t xml:space="preserve">Tampa-St. Petersburg-Clearwater, FL</t>
   </si>
   <si>
     <t xml:space="preserve">45460</t>
   </si>
   <si>
-    <t xml:space="preserve">Terre Haute, IN Metro Area</t>
+    <t xml:space="preserve">Terre Haute, IN</t>
   </si>
   <si>
     <t xml:space="preserve">45500</t>
   </si>
   <si>
-    <t xml:space="preserve">Texarkana, TX-AR Metro Area</t>
+    <t xml:space="preserve">Texarkana, TX-AR</t>
   </si>
   <si>
     <t xml:space="preserve">45620</t>
   </si>
   <si>
-    <t xml:space="preserve">Thomasville, GA Micro Area</t>
+    <t xml:space="preserve">Thomasville, GA</t>
   </si>
   <si>
     <t xml:space="preserve">45780</t>
   </si>
   <si>
-    <t xml:space="preserve">Toledo, OH Metro Area</t>
+    <t xml:space="preserve">Toledo, OH</t>
   </si>
   <si>
     <t xml:space="preserve">45820</t>
   </si>
   <si>
-    <t xml:space="preserve">Topeka, KS Metro Area</t>
+    <t xml:space="preserve">Topeka, KS</t>
   </si>
   <si>
     <t xml:space="preserve">45860</t>
   </si>
   <si>
-    <t xml:space="preserve">Torrington, CT Micro Area</t>
+    <t xml:space="preserve">Torrington, CT</t>
   </si>
   <si>
     <t xml:space="preserve">45900</t>
   </si>
   <si>
-    <t xml:space="preserve">Traverse City, MI Metro Area</t>
+    <t xml:space="preserve">Traverse City, MI</t>
   </si>
   <si>
     <t xml:space="preserve">45940</t>
   </si>
   <si>
-    <t xml:space="preserve">Trenton-Princeton, NJ Metro Area</t>
+    <t xml:space="preserve">Trenton-Princeton, NJ</t>
   </si>
   <si>
     <t xml:space="preserve">46020</t>
   </si>
   <si>
-    <t xml:space="preserve">Truckee-Grass Valley, CA Micro Area</t>
+    <t xml:space="preserve">Truckee-Grass Valley, CA</t>
   </si>
   <si>
     <t xml:space="preserve">46060</t>
   </si>
   <si>
-    <t xml:space="preserve">Tucson, AZ Metro Area</t>
+    <t xml:space="preserve">Tucson, AZ</t>
   </si>
   <si>
     <t xml:space="preserve">46100</t>
   </si>
   <si>
-    <t xml:space="preserve">Tullahoma-Manchester, TN Micro Area</t>
+    <t xml:space="preserve">Tullahoma-Manchester, TN</t>
   </si>
   <si>
     <t xml:space="preserve">46140</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulsa, OK Metro Area</t>
+    <t xml:space="preserve">Tulsa, OK</t>
   </si>
   <si>
     <t xml:space="preserve">46180</t>
   </si>
   <si>
-    <t xml:space="preserve">Tupelo, MS Micro Area</t>
+    <t xml:space="preserve">Tupelo, MS</t>
   </si>
   <si>
     <t xml:space="preserve">46220</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuscaloosa, AL Metro Area</t>
+    <t xml:space="preserve">Tuscaloosa, AL</t>
   </si>
   <si>
     <t xml:space="preserve">46300</t>
   </si>
   <si>
-    <t xml:space="preserve">Twin Falls, ID Metro Area</t>
+    <t xml:space="preserve">Twin Falls, ID</t>
   </si>
   <si>
     <t xml:space="preserve">46340</t>
   </si>
   <si>
-    <t xml:space="preserve">Tyler, TX Metro Area</t>
+    <t xml:space="preserve">Tyler, TX</t>
   </si>
   <si>
     <t xml:space="preserve">46380</t>
   </si>
   <si>
-    <t xml:space="preserve">Ukiah, CA Micro Area</t>
+    <t xml:space="preserve">Ukiah, CA</t>
   </si>
   <si>
     <t xml:space="preserve">46520</t>
   </si>
   <si>
-    <t xml:space="preserve">Urban Honolulu, HI Metro Area</t>
+    <t xml:space="preserve">Urban Honolulu, HI</t>
   </si>
   <si>
     <t xml:space="preserve">46540</t>
   </si>
   <si>
-    <t xml:space="preserve">Utica-Rome, NY Metro Area</t>
+    <t xml:space="preserve">Utica-Rome, NY</t>
   </si>
   <si>
     <t xml:space="preserve">46660</t>
   </si>
   <si>
-    <t xml:space="preserve">Valdosta, GA Metro Area</t>
+    <t xml:space="preserve">Valdosta, GA</t>
   </si>
   <si>
     <t xml:space="preserve">46700</t>
   </si>
   <si>
-    <t xml:space="preserve">Vallejo, CA Metro Area</t>
+    <t xml:space="preserve">Vallejo, CA</t>
   </si>
   <si>
     <t xml:space="preserve">47020</t>
   </si>
   <si>
-    <t xml:space="preserve">Victoria, TX Metro Area</t>
+    <t xml:space="preserve">Victoria, TX</t>
   </si>
   <si>
     <t xml:space="preserve">47220</t>
   </si>
   <si>
-    <t xml:space="preserve">Vineland, NJ Metro Area</t>
+    <t xml:space="preserve">Vineland, NJ</t>
   </si>
   <si>
     <t xml:space="preserve">47260</t>
   </si>
   <si>
-    <t xml:space="preserve">Virginia Beach-Chesapeake-Norfolk, VA-NC Metro Area</t>
+    <t xml:space="preserve">Virginia Beach-Chesapeake-Norfolk, VA-NC</t>
   </si>
   <si>
     <t xml:space="preserve">47300</t>
   </si>
   <si>
-    <t xml:space="preserve">Visalia, CA Metro Area</t>
+    <t xml:space="preserve">Visalia, CA</t>
   </si>
   <si>
     <t xml:space="preserve">47380</t>
   </si>
   <si>
-    <t xml:space="preserve">Waco, TX Metro Area</t>
+    <t xml:space="preserve">Waco, TX</t>
   </si>
   <si>
     <t xml:space="preserve">47460</t>
   </si>
   <si>
-    <t xml:space="preserve">Walla Walla, WA Metro Area</t>
+    <t xml:space="preserve">Walla Walla, WA</t>
   </si>
   <si>
     <t xml:space="preserve">47580</t>
   </si>
   <si>
-    <t xml:space="preserve">Warner Robins, GA Metro Area</t>
+    <t xml:space="preserve">Warner Robins, GA</t>
   </si>
   <si>
     <t xml:space="preserve">47700</t>
   </si>
   <si>
-    <t xml:space="preserve">Warsaw, IN Micro Area</t>
+    <t xml:space="preserve">Warsaw, IN</t>
   </si>
   <si>
     <t xml:space="preserve">47900</t>
   </si>
   <si>
-    <t xml:space="preserve">Washington-Arlington-Alexandria, DC-VA-MD-WV Metro Area</t>
+    <t xml:space="preserve">Washington-Arlington-Alexandria, DC-VA-MD-WV</t>
   </si>
   <si>
     <t xml:space="preserve">47930</t>
   </si>
   <si>
-    <t xml:space="preserve">Waterbury-Shelton, CT Metro Area</t>
+    <t xml:space="preserve">Waterbury-Shelton, CT</t>
   </si>
   <si>
     <t xml:space="preserve">47940</t>
   </si>
   <si>
-    <t xml:space="preserve">Waterloo-Cedar Falls, IA Metro Area</t>
+    <t xml:space="preserve">Waterloo-Cedar Falls, IA</t>
   </si>
   <si>
     <t xml:space="preserve">48020</t>
   </si>
   <si>
-    <t xml:space="preserve">Watertown-Fort Atkinson, WI Micro Area</t>
+    <t xml:space="preserve">Watertown-Fort Atkinson, WI</t>
   </si>
   <si>
     <t xml:space="preserve">48060</t>
   </si>
   <si>
-    <t xml:space="preserve">Watertown-Fort Drum, NY Metro Area</t>
+    <t xml:space="preserve">Watertown-Fort Drum, NY</t>
   </si>
   <si>
     <t xml:space="preserve">48140</t>
   </si>
   <si>
-    <t xml:space="preserve">Wausau, WI Metro Area</t>
+    <t xml:space="preserve">Wausau, WI</t>
   </si>
   <si>
     <t xml:space="preserve">48260</t>
   </si>
   <si>
-    <t xml:space="preserve">Weirton-Steubenville, WV-OH Metro Area</t>
+    <t xml:space="preserve">Weirton-Steubenville, WV-OH</t>
   </si>
   <si>
     <t xml:space="preserve">48300</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenatchee-East Wenatchee, WA Metro Area</t>
+    <t xml:space="preserve">Wenatchee-East Wenatchee, WA</t>
   </si>
   <si>
     <t xml:space="preserve">48540</t>
   </si>
   <si>
-    <t xml:space="preserve">Wheeling, WV-OH Metro Area</t>
+    <t xml:space="preserve">Wheeling, WV-OH</t>
   </si>
   <si>
     <t xml:space="preserve">48580</t>
   </si>
   <si>
-    <t xml:space="preserve">Whitewater-Elkhorn, WI Micro Area</t>
+    <t xml:space="preserve">Whitewater-Elkhorn, WI</t>
   </si>
   <si>
     <t xml:space="preserve">48620</t>
   </si>
   <si>
-    <t xml:space="preserve">Wichita, KS Metro Area</t>
+    <t xml:space="preserve">Wichita, KS</t>
   </si>
   <si>
     <t xml:space="preserve">48660</t>
   </si>
   <si>
-    <t xml:space="preserve">Wichita Falls, TX Metro Area</t>
+    <t xml:space="preserve">Wichita Falls, TX</t>
   </si>
   <si>
     <t xml:space="preserve">48680</t>
   </si>
   <si>
-    <t xml:space="preserve">Wildwood-The Villages, FL Metro Area</t>
+    <t xml:space="preserve">Wildwood-The Villages, FL</t>
   </si>
   <si>
     <t xml:space="preserve">48700</t>
   </si>
   <si>
-    <t xml:space="preserve">Williamsport, PA Metro Area</t>
+    <t xml:space="preserve">Williamsport, PA</t>
   </si>
   <si>
     <t xml:space="preserve">48900</t>
   </si>
   <si>
-    <t xml:space="preserve">Wilmington, NC Metro Area</t>
+    <t xml:space="preserve">Wilmington, NC</t>
   </si>
   <si>
     <t xml:space="preserve">48980</t>
   </si>
   <si>
-    <t xml:space="preserve">Wilson, NC Micro Area</t>
+    <t xml:space="preserve">Wilson, NC</t>
   </si>
   <si>
     <t xml:space="preserve">49020</t>
   </si>
   <si>
-    <t xml:space="preserve">Winchester, VA-WV Metro Area</t>
+    <t xml:space="preserve">Winchester, VA-WV</t>
   </si>
   <si>
     <t xml:space="preserve">49180</t>
   </si>
   <si>
-    <t xml:space="preserve">Winston-Salem, NC Metro Area</t>
+    <t xml:space="preserve">Winston-Salem, NC</t>
   </si>
   <si>
     <t xml:space="preserve">49220</t>
   </si>
   <si>
-    <t xml:space="preserve">Wisconsin Rapids-Marshfield, WI Micro Area</t>
+    <t xml:space="preserve">Wisconsin Rapids-Marshfield, WI</t>
   </si>
   <si>
     <t xml:space="preserve">49300</t>
   </si>
   <si>
-    <t xml:space="preserve">Wooster, OH Micro Area</t>
+    <t xml:space="preserve">Wooster, OH</t>
   </si>
   <si>
     <t xml:space="preserve">49340</t>
   </si>
   <si>
-    <t xml:space="preserve">Worcester, MA Metro Area</t>
+    <t xml:space="preserve">Worcester, MA</t>
   </si>
   <si>
     <t xml:space="preserve">49420</t>
   </si>
   <si>
-    <t xml:space="preserve">Yakima, WA Metro Area</t>
+    <t xml:space="preserve">Yakima, WA</t>
   </si>
   <si>
     <t xml:space="preserve">49620</t>
   </si>
   <si>
-    <t xml:space="preserve">York-Hanover, PA Metro Area</t>
+    <t xml:space="preserve">York-Hanover, PA</t>
   </si>
   <si>
     <t xml:space="preserve">49660</t>
   </si>
   <si>
-    <t xml:space="preserve">Youngstown-Warren, OH Metro Area</t>
+    <t xml:space="preserve">Youngstown-Warren, OH</t>
   </si>
   <si>
     <t xml:space="preserve">49700</t>
   </si>
   <si>
-    <t xml:space="preserve">Yuba City, CA Metro Area</t>
+    <t xml:space="preserve">Yuba City, CA</t>
   </si>
   <si>
     <t xml:space="preserve">49740</t>
   </si>
   <si>
-    <t xml:space="preserve">Yuma, AZ Metro Area</t>
+    <t xml:space="preserve">Yuma, AZ</t>
   </si>
   <si>
     <t xml:space="preserve">49780</t>
   </si>
   <si>
-    <t xml:space="preserve">Zanesville, OH Micro Area</t>
+    <t xml:space="preserve">Zanesville, OH</t>
   </si>
 </sst>
 </file>
